--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4209854.669673785</v>
+        <v>4208386.665597041</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1125855.109547692</v>
+        <v>1125855.109547691</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53890.85515285096</v>
+        <v>53890.85515285056</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>81.0053776549329</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
+        <v>68.21015448122992</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>30.22545560005763</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>51.58226250338542</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,7 +788,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>36.80381495957725</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>25.27301452591087</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>200.3360962888296</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>57.16776090941368</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>123.7922091700869</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>99.24815076615349</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>291.718663542986</v>
       </c>
       <c r="C11" t="n">
-        <v>274.2577136505129</v>
+        <v>274.257713650513</v>
       </c>
       <c r="D11" t="n">
         <v>263.6678635001883</v>
       </c>
       <c r="E11" t="n">
-        <v>245.7804723932627</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F11" t="n">
         <v>315.8608676212168</v>
@@ -1390,7 +1390,7 @@
         <v>225.8230740502262</v>
       </c>
       <c r="I11" t="n">
-        <v>34.24693463981497</v>
+        <v>34.24693463981492</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>67.63697916278539</v>
       </c>
       <c r="T11" t="n">
-        <v>122.4049485207083</v>
+        <v>122.4049485207084</v>
       </c>
       <c r="U11" t="n">
-        <v>160.1536483261576</v>
+        <v>115.0189287676562</v>
       </c>
       <c r="V11" t="n">
         <v>236.7370803496403</v>
@@ -1469,7 +1469,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I12" t="n">
-        <v>48.6788474240782</v>
+        <v>48.67884742407816</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.73095892851816</v>
+        <v>26.73095892851809</v>
       </c>
       <c r="S12" t="n">
         <v>149.7163148892172</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.81680206144266</v>
+        <v>88.8168020614427</v>
       </c>
       <c r="C13" t="n">
-        <v>76.23164297813319</v>
+        <v>76.23164297813324</v>
       </c>
       <c r="D13" t="n">
-        <v>57.60029489771772</v>
+        <v>57.60029489771776</v>
       </c>
       <c r="E13" t="n">
-        <v>55.41878452607453</v>
+        <v>55.41878452607457</v>
       </c>
       <c r="F13" t="n">
-        <v>54.40586990243661</v>
+        <v>54.40586990243665</v>
       </c>
       <c r="G13" t="n">
-        <v>75.98432295022737</v>
+        <v>75.98432295022741</v>
       </c>
       <c r="H13" t="n">
-        <v>62.39685106506707</v>
+        <v>62.39685106506721</v>
       </c>
       <c r="I13" t="n">
-        <v>34.61884066282494</v>
+        <v>34.61884066282542</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.69774406443831</v>
+        <v>41.69774406443854</v>
       </c>
       <c r="S13" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T13" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U13" t="n">
-        <v>195.2497706021196</v>
+        <v>195.2497706021192</v>
       </c>
       <c r="V13" t="n">
         <v>161.1224652033334</v>
@@ -1593,7 +1593,7 @@
         <v>195.5078202160964</v>
       </c>
       <c r="X13" t="n">
-        <v>134.6944772685425</v>
+        <v>134.6944772685426</v>
       </c>
       <c r="Y13" t="n">
         <v>127.5694752316002</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291.7186635429859</v>
+        <v>291.718663542986</v>
       </c>
       <c r="C14" t="n">
-        <v>274.2577136505129</v>
+        <v>274.257713650513</v>
       </c>
       <c r="D14" t="n">
         <v>263.6678635001883</v>
       </c>
       <c r="E14" t="n">
-        <v>290.9151919517671</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F14" t="n">
-        <v>315.8608676212168</v>
+        <v>270.7261480627155</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0772286298366</v>
+        <v>322.0772286298367</v>
       </c>
       <c r="H14" t="n">
-        <v>225.8230740502261</v>
+        <v>225.8230740502262</v>
       </c>
       <c r="I14" t="n">
         <v>34.2469346398149</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.50225960428429</v>
+        <v>67.63697916278538</v>
       </c>
       <c r="T14" t="n">
-        <v>122.4049485207083</v>
+        <v>122.4049485207084</v>
       </c>
       <c r="U14" t="n">
-        <v>160.1536483261575</v>
+        <v>160.1536483261576</v>
       </c>
       <c r="V14" t="n">
-        <v>236.7370803496402</v>
+        <v>236.7370803496403</v>
       </c>
       <c r="W14" t="n">
-        <v>258.2257905969183</v>
+        <v>258.2257905969184</v>
       </c>
       <c r="X14" t="n">
         <v>278.7159225579744</v>
       </c>
       <c r="Y14" t="n">
-        <v>295.2227605355589</v>
+        <v>295.222760535559</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I15" t="n">
-        <v>48.67884742407819</v>
+        <v>48.67884742407815</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.73095892851813</v>
+        <v>26.73095892851808</v>
       </c>
       <c r="S15" t="n">
         <v>149.7163148892172</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.81680206144263</v>
+        <v>88.8168020614427</v>
       </c>
       <c r="C16" t="n">
-        <v>76.23164297813317</v>
+        <v>76.23164297813324</v>
       </c>
       <c r="D16" t="n">
-        <v>57.60029489771769</v>
+        <v>57.60029489771776</v>
       </c>
       <c r="E16" t="n">
-        <v>55.4187845260745</v>
+        <v>55.41878452607457</v>
       </c>
       <c r="F16" t="n">
-        <v>54.40586990243658</v>
+        <v>54.40586990243665</v>
       </c>
       <c r="G16" t="n">
-        <v>75.98432295022734</v>
+        <v>75.98432295022739</v>
       </c>
       <c r="H16" t="n">
-        <v>62.39685106506715</v>
+        <v>62.39685106506722</v>
       </c>
       <c r="I16" t="n">
-        <v>34.61884066282538</v>
+        <v>34.61884066282542</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.69774406443828</v>
+        <v>41.69774406443831</v>
       </c>
       <c r="S16" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T16" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U16" t="n">
-        <v>195.2497706021197</v>
+        <v>195.2497706021198</v>
       </c>
       <c r="V16" t="n">
-        <v>161.1224652033333</v>
+        <v>161.1224652033334</v>
       </c>
       <c r="W16" t="n">
-        <v>195.5078202160963</v>
+        <v>195.5078202160964</v>
       </c>
       <c r="X16" t="n">
-        <v>134.6944772685425</v>
+        <v>134.6944772685426</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.5694752316001</v>
+        <v>127.5694752316002</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>222.8140927463261</v>
       </c>
       <c r="I17" t="n">
-        <v>31.23795333591482</v>
+        <v>31.23795333591474</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.62799785888529</v>
+        <v>64.62799785888521</v>
       </c>
       <c r="T17" t="n">
         <v>119.3959672168082</v>
       </c>
       <c r="U17" t="n">
-        <v>157.1446670222575</v>
+        <v>157.1446670222578</v>
       </c>
       <c r="V17" t="n">
-        <v>233.7280990457397</v>
+        <v>233.7280990457402</v>
       </c>
       <c r="W17" t="n">
         <v>255.2168092930183</v>
@@ -1912,7 +1912,7 @@
         <v>275.7069412540743</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2137792316589</v>
+        <v>292.2137792316588</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I18" t="n">
-        <v>48.67884742407816</v>
+        <v>48.67884742407815</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.73095892851811</v>
+        <v>26.73095892851808</v>
       </c>
       <c r="S18" t="n">
         <v>149.7163148892172</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.80782075754259</v>
+        <v>85.80782075754254</v>
       </c>
       <c r="C19" t="n">
-        <v>73.22266167423312</v>
+        <v>73.22266167423308</v>
       </c>
       <c r="D19" t="n">
-        <v>54.59131359381765</v>
+        <v>54.5913135938176</v>
       </c>
       <c r="E19" t="n">
-        <v>52.40980322217446</v>
+        <v>52.40980322217442</v>
       </c>
       <c r="F19" t="n">
-        <v>51.39688859853653</v>
+        <v>51.39688859853649</v>
       </c>
       <c r="G19" t="n">
-        <v>72.97534164632728</v>
+        <v>72.97534164632724</v>
       </c>
       <c r="H19" t="n">
-        <v>59.38786976116711</v>
+        <v>59.38786976116706</v>
       </c>
       <c r="I19" t="n">
-        <v>31.60985935892532</v>
+        <v>31.60985935892526</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.68876276053822</v>
+        <v>38.68876276053815</v>
       </c>
       <c r="S19" t="n">
         <v>112.7136760890196</v>
       </c>
       <c r="T19" t="n">
-        <v>129.685113683557</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U19" t="n">
         <v>192.2407892982196</v>
       </c>
       <c r="V19" t="n">
-        <v>158.1134838994333</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W19" t="n">
-        <v>192.4988389121963</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X19" t="n">
         <v>131.6854959646424</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.5604939277001</v>
+        <v>124.5604939277</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2092,16 @@
         <v>287.9062106478671</v>
       </c>
       <c r="F20" t="n">
-        <v>312.8518863173169</v>
+        <v>312.8518863173167</v>
       </c>
       <c r="G20" t="n">
         <v>319.0682473259366</v>
       </c>
       <c r="H20" t="n">
-        <v>222.8140927463261</v>
+        <v>222.8140927463265</v>
       </c>
       <c r="I20" t="n">
-        <v>31.23795333591481</v>
+        <v>31.23795333591478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.62799785888528</v>
+        <v>64.627997858885</v>
       </c>
       <c r="T20" t="n">
         <v>119.3959672168082</v>
       </c>
       <c r="U20" t="n">
-        <v>157.1446670222575</v>
+        <v>157.1446670222578</v>
       </c>
       <c r="V20" t="n">
         <v>233.7280990457402</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.80782075754259</v>
+        <v>85.80782075754256</v>
       </c>
       <c r="C22" t="n">
-        <v>73.22266167423312</v>
+        <v>73.22266167423309</v>
       </c>
       <c r="D22" t="n">
-        <v>54.59131359381765</v>
+        <v>54.59131359381762</v>
       </c>
       <c r="E22" t="n">
-        <v>52.40980322217446</v>
+        <v>52.40980322217443</v>
       </c>
       <c r="F22" t="n">
-        <v>51.39688859853653</v>
+        <v>51.39688859853651</v>
       </c>
       <c r="G22" t="n">
-        <v>72.97534164632728</v>
+        <v>72.97534164632725</v>
       </c>
       <c r="H22" t="n">
-        <v>59.3878697611671</v>
+        <v>59.38786976116707</v>
       </c>
       <c r="I22" t="n">
-        <v>31.60985935892531</v>
+        <v>31.60985935892528</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.68876276053821</v>
+        <v>38.68876276053818</v>
       </c>
       <c r="S22" t="n">
         <v>112.7136760890196</v>
@@ -2320,16 +2320,16 @@
         <v>288.7096822390859</v>
       </c>
       <c r="C23" t="n">
-        <v>271.2487323466128</v>
+        <v>271.2487323466129</v>
       </c>
       <c r="D23" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962883</v>
       </c>
       <c r="E23" t="n">
         <v>287.9062106478671</v>
       </c>
       <c r="F23" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173168</v>
       </c>
       <c r="G23" t="n">
         <v>319.0682473259366</v>
@@ -2338,7 +2338,7 @@
         <v>222.8140927463261</v>
       </c>
       <c r="I23" t="n">
-        <v>31.23795333591481</v>
+        <v>31.23795333591484</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.627997858885</v>
+        <v>64.62799785888531</v>
       </c>
       <c r="T23" t="n">
-        <v>119.3959672168082</v>
+        <v>119.3959672168083</v>
       </c>
       <c r="U23" t="n">
         <v>157.1446670222569</v>
@@ -2383,7 +2383,7 @@
         <v>255.2168092930183</v>
       </c>
       <c r="X23" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540744</v>
       </c>
       <c r="Y23" t="n">
         <v>292.2137792316589</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.80782075754259</v>
+        <v>85.80782075754261</v>
       </c>
       <c r="C25" t="n">
-        <v>73.22266167423312</v>
+        <v>73.22266167423315</v>
       </c>
       <c r="D25" t="n">
-        <v>54.59131359381765</v>
+        <v>54.59131359381767</v>
       </c>
       <c r="E25" t="n">
-        <v>52.40980322217446</v>
+        <v>52.40980322217449</v>
       </c>
       <c r="F25" t="n">
-        <v>51.39688859853653</v>
+        <v>51.39688859853656</v>
       </c>
       <c r="G25" t="n">
-        <v>72.97534164632728</v>
+        <v>72.97534164632731</v>
       </c>
       <c r="H25" t="n">
-        <v>59.3878697611671</v>
+        <v>59.38786976116713</v>
       </c>
       <c r="I25" t="n">
-        <v>31.60985935892531</v>
+        <v>31.60985935892534</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.68876276053821</v>
+        <v>38.68876276053824</v>
       </c>
       <c r="S25" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890197</v>
       </c>
       <c r="T25" t="n">
         <v>129.685113683557</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982197</v>
       </c>
       <c r="V25" t="n">
         <v>158.1134838994333</v>
@@ -2541,7 +2541,7 @@
         <v>192.4988389121963</v>
       </c>
       <c r="X25" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646425</v>
       </c>
       <c r="Y25" t="n">
         <v>124.5604939277001</v>
@@ -2560,7 +2560,7 @@
         <v>274.2577136505129</v>
       </c>
       <c r="D26" t="n">
-        <v>252.7800785815023</v>
+        <v>263.6678635001883</v>
       </c>
       <c r="E26" t="n">
         <v>290.9151919517672</v>
@@ -2572,7 +2572,7 @@
         <v>322.0772286298367</v>
       </c>
       <c r="H26" t="n">
-        <v>225.8230740502262</v>
+        <v>214.9352891315394</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.63697916278537</v>
+        <v>67.63697916278538</v>
       </c>
       <c r="T26" t="n">
         <v>122.4049485207083</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88.81680206144267</v>
+        <v>88.81680206144269</v>
       </c>
       <c r="C28" t="n">
-        <v>76.23164297813321</v>
+        <v>76.23164297813322</v>
       </c>
       <c r="D28" t="n">
-        <v>57.60029489771773</v>
+        <v>57.60029489771775</v>
       </c>
       <c r="E28" t="n">
-        <v>55.41878452607455</v>
+        <v>55.41878452607456</v>
       </c>
       <c r="F28" t="n">
-        <v>54.40586990243662</v>
+        <v>54.40586990243663</v>
       </c>
       <c r="G28" t="n">
-        <v>75.98432295022738</v>
+        <v>75.98432295022739</v>
       </c>
       <c r="H28" t="n">
-        <v>62.39685106506722</v>
+        <v>62.3968510650672</v>
       </c>
       <c r="I28" t="n">
-        <v>34.61884066282539</v>
+        <v>34.61884066282543</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.6977440644383</v>
+        <v>41.69774406443831</v>
       </c>
       <c r="S28" t="n">
         <v>115.7226573929197</v>
@@ -2769,7 +2769,7 @@
         <v>132.6940949874571</v>
       </c>
       <c r="U28" t="n">
-        <v>195.2497706021201</v>
+        <v>195.2497706021196</v>
       </c>
       <c r="V28" t="n">
         <v>161.1224652033334</v>
@@ -2809,7 +2809,7 @@
         <v>322.0772286298367</v>
       </c>
       <c r="H29" t="n">
-        <v>180.6883544917249</v>
+        <v>225.8230740502262</v>
       </c>
       <c r="I29" t="n">
         <v>34.24693463981492</v>
@@ -2848,7 +2848,7 @@
         <v>122.4049485207084</v>
       </c>
       <c r="U29" t="n">
-        <v>160.1536483261576</v>
+        <v>115.0189287676558</v>
       </c>
       <c r="V29" t="n">
         <v>236.7370803496403</v>
@@ -3082,10 +3082,10 @@
         <v>64.62799785888528</v>
       </c>
       <c r="T32" t="n">
-        <v>119.395967216808</v>
+        <v>119.3959672168084</v>
       </c>
       <c r="U32" t="n">
-        <v>157.1446670222578</v>
+        <v>157.1446670222569</v>
       </c>
       <c r="V32" t="n">
         <v>233.7280990457402</v>
@@ -3268,16 +3268,16 @@
         <v>288.7096822390859</v>
       </c>
       <c r="C35" t="n">
-        <v>271.2487323466128</v>
+        <v>271.2487323466129</v>
       </c>
       <c r="D35" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962883</v>
       </c>
       <c r="E35" t="n">
         <v>287.9062106478671</v>
       </c>
       <c r="F35" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173168</v>
       </c>
       <c r="G35" t="n">
         <v>319.0682473259366</v>
@@ -3286,7 +3286,7 @@
         <v>222.8140927463261</v>
       </c>
       <c r="I35" t="n">
-        <v>31.23795333591481</v>
+        <v>31.23795333591484</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.627997858885</v>
+        <v>64.62799785888454</v>
       </c>
       <c r="T35" t="n">
-        <v>119.3959672168082</v>
+        <v>119.3959672168083</v>
       </c>
       <c r="U35" t="n">
-        <v>157.144667022256</v>
+        <v>157.1446670222578</v>
       </c>
       <c r="V35" t="n">
         <v>233.7280990457402</v>
@@ -3331,7 +3331,7 @@
         <v>255.2168092930183</v>
       </c>
       <c r="X35" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540744</v>
       </c>
       <c r="Y35" t="n">
         <v>292.2137792316589</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.80782075754259</v>
+        <v>85.80782075754261</v>
       </c>
       <c r="C37" t="n">
-        <v>73.22266167423312</v>
+        <v>73.22266167423315</v>
       </c>
       <c r="D37" t="n">
-        <v>54.59131359381765</v>
+        <v>54.59131359381767</v>
       </c>
       <c r="E37" t="n">
-        <v>52.40980322217446</v>
+        <v>52.40980322217449</v>
       </c>
       <c r="F37" t="n">
-        <v>51.39688859853653</v>
+        <v>51.39688859853656</v>
       </c>
       <c r="G37" t="n">
-        <v>72.97534164632728</v>
+        <v>72.97534164632731</v>
       </c>
       <c r="H37" t="n">
-        <v>59.3878697611671</v>
+        <v>59.38786976116713</v>
       </c>
       <c r="I37" t="n">
-        <v>31.60985935892531</v>
+        <v>31.60985935892534</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>38.68876276053821</v>
+        <v>38.68876276053824</v>
       </c>
       <c r="S37" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890197</v>
       </c>
       <c r="T37" t="n">
         <v>129.685113683557</v>
       </c>
       <c r="U37" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982197</v>
       </c>
       <c r="V37" t="n">
         <v>158.1134838994333</v>
@@ -3489,7 +3489,7 @@
         <v>192.4988389121963</v>
       </c>
       <c r="X37" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646425</v>
       </c>
       <c r="Y37" t="n">
         <v>124.5604939277001</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.62799785888531</v>
+        <v>64.627997858885</v>
       </c>
       <c r="T38" t="n">
         <v>119.3959672168083</v>
       </c>
       <c r="U38" t="n">
-        <v>157.1446670222565</v>
+        <v>157.1446670222578</v>
       </c>
       <c r="V38" t="n">
         <v>233.7280990457402</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>22.50225960428429</v>
+        <v>67.63697916278538</v>
       </c>
       <c r="T41" t="n">
-        <v>122.4049485207083</v>
+        <v>77.27022896220728</v>
       </c>
       <c r="U41" t="n">
         <v>160.1536483261576</v>
@@ -3918,7 +3918,7 @@
         <v>62.3968510650672</v>
       </c>
       <c r="I43" t="n">
-        <v>34.61884066282504</v>
+        <v>34.61884066282541</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>115.7226573929197</v>
       </c>
       <c r="T43" t="n">
-        <v>132.6940949874571</v>
+        <v>132.6940949874568</v>
       </c>
       <c r="U43" t="n">
-        <v>195.2497706021196</v>
+        <v>195.2497706021201</v>
       </c>
       <c r="V43" t="n">
         <v>161.1224652033334</v>
@@ -3997,7 +3997,7 @@
         <v>225.8230740502262</v>
       </c>
       <c r="I44" t="n">
-        <v>34.24693463981491</v>
+        <v>34.24693463981488</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.63697916278538</v>
+        <v>22.50225960428474</v>
       </c>
       <c r="T44" t="n">
-        <v>77.27022896220728</v>
+        <v>122.4049485207083</v>
       </c>
       <c r="U44" t="n">
         <v>160.1536483261576</v>
@@ -4076,7 +4076,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I45" t="n">
-        <v>48.67884742407816</v>
+        <v>48.67884742407815</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>26.73095892851809</v>
+        <v>26.73095892851808</v>
       </c>
       <c r="S45" t="n">
         <v>149.7163148892172</v>
@@ -4137,7 +4137,7 @@
         <v>88.81680206144269</v>
       </c>
       <c r="C46" t="n">
-        <v>76.23164297813322</v>
+        <v>76.23164297813341</v>
       </c>
       <c r="D46" t="n">
         <v>57.60029489771775</v>
@@ -4152,7 +4152,7 @@
         <v>75.98432295022738</v>
       </c>
       <c r="H46" t="n">
-        <v>62.39685106506734</v>
+        <v>62.3968510650672</v>
       </c>
       <c r="I46" t="n">
         <v>34.61884066282541</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.69774406443831</v>
+        <v>41.6977440644383</v>
       </c>
       <c r="S46" t="n">
         <v>115.7226573929197</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>569.2254314512334</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="V2" t="n">
-        <v>569.2254314512334</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="W2" t="n">
-        <v>569.2254314512334</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X2" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y2" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>210.869396638348</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C3" t="n">
-        <v>210.869396638348</v>
+        <v>688.4345967823949</v>
       </c>
       <c r="D3" t="n">
-        <v>210.869396638348</v>
+        <v>539.5001871211437</v>
       </c>
       <c r="E3" t="n">
-        <v>210.869396638348</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>210.869396638348</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>72.13857122096351</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>72.13857122096351</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>454.3181732824481</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>210.869396638348</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>210.869396638348</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>210.869396638348</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
         <v>19.28114311021272</v>
@@ -4509,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>536.8878951967741</v>
+        <v>590.5599471655395</v>
       </c>
       <c r="C6" t="n">
-        <v>362.4348659156472</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="D6" t="n">
-        <v>362.4348659156472</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>562.4161926976942</v>
+        <v>825.7120553972823</v>
       </c>
       <c r="V6" t="n">
-        <v>562.4161926976942</v>
+        <v>590.5599471655395</v>
       </c>
       <c r="W6" t="n">
-        <v>536.8878951967741</v>
+        <v>590.5599471655395</v>
       </c>
       <c r="X6" t="n">
-        <v>536.8878951967741</v>
+        <v>590.5599471655395</v>
       </c>
       <c r="Y6" t="n">
-        <v>536.8878951967741</v>
+        <v>590.5599471655395</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>290.2572196227447</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>179.2727307684539</v>
+        <v>145.0779112883388</v>
       </c>
       <c r="C9" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
         <v>20.03527576299844</v>
@@ -4889,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X9" t="n">
-        <v>387.0330295334078</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y9" t="n">
-        <v>179.2727307684539</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1768.635817725122</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C11" t="n">
-        <v>1491.607824138745</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D11" t="n">
-        <v>1225.27664888603</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E11" t="n">
         <v>977.0135454584916</v>
@@ -5038,55 +5038,55 @@
         <v>104.5275148511384</v>
       </c>
       <c r="I11" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J11" t="n">
-        <v>243.8279252593006</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K11" t="n">
-        <v>625.193669573393</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L11" t="n">
-        <v>1150.58822560315</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M11" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N11" t="n">
-        <v>2348.102865308521</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O11" t="n">
-        <v>2865.989524423012</v>
+        <v>2865.989524423015</v>
       </c>
       <c r="P11" t="n">
-        <v>3270.319423338376</v>
+        <v>3270.319423338378</v>
       </c>
       <c r="Q11" t="n">
-        <v>3496.732578929899</v>
+        <v>3496.732578929903</v>
       </c>
       <c r="R11" t="n">
-        <v>3496.732578929899</v>
+        <v>3496.732578929903</v>
       </c>
       <c r="S11" t="n">
-        <v>3428.412397957389</v>
+        <v>3428.412397957392</v>
       </c>
       <c r="T11" t="n">
-        <v>3304.771035815259</v>
+        <v>3304.771035815262</v>
       </c>
       <c r="U11" t="n">
-        <v>3142.999673869645</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V11" t="n">
-        <v>2903.87130988011</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W11" t="n">
-        <v>2643.037177964031</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.505943056986</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y11" t="n">
-        <v>2063.301134435209</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>220.937241300597</v>
       </c>
       <c r="H12" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I12" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J12" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="K12" t="n">
-        <v>122.5309440662729</v>
+        <v>122.5309440662732</v>
       </c>
       <c r="L12" t="n">
-        <v>606.707633107171</v>
+        <v>606.7076331071715</v>
       </c>
       <c r="M12" t="n">
-        <v>1071.164439763173</v>
+        <v>1223.698213719151</v>
       </c>
       <c r="N12" t="n">
-        <v>1720.191938518637</v>
+        <v>1872.725712474616</v>
       </c>
       <c r="O12" t="n">
-        <v>2247.509623814826</v>
+        <v>2400.043397770804</v>
       </c>
       <c r="P12" t="n">
         <v>2653.725487735952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2664.59575085658</v>
+        <v>2664.595750856579</v>
       </c>
       <c r="R12" t="n">
         <v>2637.594782241915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>490.7999111568621</v>
+        <v>490.7999111568629</v>
       </c>
       <c r="C13" t="n">
-        <v>413.7982515829902</v>
+        <v>413.7982515829909</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6161355246895</v>
+        <v>355.6161355246902</v>
       </c>
       <c r="E13" t="n">
-        <v>299.6375652963313</v>
+        <v>299.637565296332</v>
       </c>
       <c r="F13" t="n">
-        <v>244.682141152456</v>
+        <v>244.6821411524566</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9302997885899</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H13" t="n">
-        <v>104.9031775006434</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I13" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J13" t="n">
-        <v>137.0106293959406</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K13" t="n">
-        <v>319.1086914830884</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L13" t="n">
-        <v>582.459566088914</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M13" t="n">
-        <v>865.6171716594306</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N13" t="n">
         <v>1149.619034811413</v>
       </c>
       <c r="O13" t="n">
-        <v>1402.802877545182</v>
+        <v>1402.802877545183</v>
       </c>
       <c r="P13" t="n">
-        <v>1608.929321817165</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q13" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R13" t="n">
         <v>1653.807550513945</v>
       </c>
       <c r="S13" t="n">
-        <v>1536.915977389783</v>
+        <v>1536.915977389784</v>
       </c>
       <c r="T13" t="n">
-        <v>1402.881538008513</v>
+        <v>1402.881538008514</v>
       </c>
       <c r="U13" t="n">
-        <v>1205.659547501322</v>
+        <v>1205.659547501323</v>
       </c>
       <c r="V13" t="n">
-        <v>1042.90958264947</v>
+        <v>1042.909582649471</v>
       </c>
       <c r="W13" t="n">
-        <v>845.4269359665443</v>
+        <v>845.4269359665453</v>
       </c>
       <c r="X13" t="n">
-        <v>709.371908422562</v>
+        <v>709.3719084225629</v>
       </c>
       <c r="Y13" t="n">
-        <v>580.5138526330668</v>
+        <v>580.5138526330677</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1814.226443541793</v>
+        <v>1768.635817725125</v>
       </c>
       <c r="C14" t="n">
-        <v>1537.198449955416</v>
+        <v>1491.607824138749</v>
       </c>
       <c r="D14" t="n">
-        <v>1270.867274702701</v>
+        <v>1225.276648886033</v>
       </c>
       <c r="E14" t="n">
-        <v>977.0135454584913</v>
+        <v>931.4229196418237</v>
       </c>
       <c r="F14" t="n">
-        <v>657.9621640229188</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G14" t="n">
-        <v>332.631630053387</v>
+        <v>332.6316300533871</v>
       </c>
       <c r="H14" t="n">
         <v>104.5275148511383</v>
       </c>
       <c r="I14" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J14" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K14" t="n">
-        <v>625.1936695733941</v>
+        <v>625.1936695733938</v>
       </c>
       <c r="L14" t="n">
         <v>1150.588225603152</v>
@@ -5296,34 +5296,34 @@
         <v>2865.989524423015</v>
       </c>
       <c r="P14" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338378</v>
       </c>
       <c r="Q14" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929903</v>
       </c>
       <c r="R14" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929903</v>
       </c>
       <c r="S14" t="n">
-        <v>3474.003023774058</v>
+        <v>3428.412397957392</v>
       </c>
       <c r="T14" t="n">
-        <v>3350.361661631929</v>
+        <v>3304.771035815262</v>
       </c>
       <c r="U14" t="n">
-        <v>3188.590299686315</v>
+        <v>3142.999673869649</v>
       </c>
       <c r="V14" t="n">
-        <v>2949.46193569678</v>
+        <v>2903.871309880113</v>
       </c>
       <c r="W14" t="n">
-        <v>2688.627803780701</v>
+        <v>2643.037177964034</v>
       </c>
       <c r="X14" t="n">
-        <v>2407.096568873656</v>
+        <v>2361.505943056989</v>
       </c>
       <c r="Y14" t="n">
-        <v>2108.89176025188</v>
+        <v>2063.301134435212</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>119.1052045322124</v>
       </c>
       <c r="I15" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J15" t="n">
-        <v>69.93465157859802</v>
+        <v>179.8109144116362</v>
       </c>
       <c r="K15" t="n">
-        <v>384.3515287087258</v>
+        <v>494.2277915417642</v>
       </c>
       <c r="L15" t="n">
-        <v>501.3962758991994</v>
+        <v>978.4044805826626</v>
       </c>
       <c r="M15" t="n">
-        <v>863.1879249046823</v>
+        <v>1337.736875504799</v>
       </c>
       <c r="N15" t="n">
-        <v>1512.215423660147</v>
+        <v>1512.215423660146</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.533108956335</v>
+        <v>2039.533108956334</v>
       </c>
       <c r="P15" t="n">
-        <v>2445.748972877462</v>
+        <v>2445.748972877461</v>
       </c>
       <c r="Q15" t="n">
-        <v>2664.59575085658</v>
+        <v>2664.595750856579</v>
       </c>
       <c r="R15" t="n">
         <v>2637.594782241915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>490.7999111568625</v>
+        <v>490.7999111568629</v>
       </c>
       <c r="C16" t="n">
-        <v>413.7982515829906</v>
+        <v>413.798251582991</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6161355246899</v>
+        <v>355.6161355246902</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6375652963318</v>
+        <v>299.6375652963321</v>
       </c>
       <c r="F16" t="n">
-        <v>244.6821411524565</v>
+        <v>244.6821411524567</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9302997885905</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H16" t="n">
         <v>104.9031775006439</v>
       </c>
       <c r="I16" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J16" t="n">
-        <v>137.0106293959408</v>
+        <v>137.0106293959413</v>
       </c>
       <c r="K16" t="n">
-        <v>319.1086914830887</v>
+        <v>319.1086914830892</v>
       </c>
       <c r="L16" t="n">
-        <v>582.4595660889144</v>
+        <v>582.4595660889149</v>
       </c>
       <c r="M16" t="n">
-        <v>865.6171716594304</v>
+        <v>865.6171716594317</v>
       </c>
       <c r="N16" t="n">
-        <v>1149.619034811413</v>
+        <v>1149.619034811414</v>
       </c>
       <c r="O16" t="n">
-        <v>1402.802877545182</v>
+        <v>1402.802877545183</v>
       </c>
       <c r="P16" t="n">
-        <v>1608.929321817165</v>
+        <v>1608.929321817167</v>
       </c>
       <c r="Q16" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R16" t="n">
-        <v>1653.807550513945</v>
+        <v>1653.807550513946</v>
       </c>
       <c r="S16" t="n">
-        <v>1536.915977389783</v>
+        <v>1536.915977389785</v>
       </c>
       <c r="T16" t="n">
-        <v>1402.881538008514</v>
+        <v>1402.881538008515</v>
       </c>
       <c r="U16" t="n">
-        <v>1205.659547501322</v>
+        <v>1205.659547501323</v>
       </c>
       <c r="V16" t="n">
-        <v>1042.90958264947</v>
+        <v>1042.909582649471</v>
       </c>
       <c r="W16" t="n">
-        <v>845.4269359665446</v>
+        <v>845.4269359665453</v>
       </c>
       <c r="X16" t="n">
-        <v>709.3719084225623</v>
+        <v>709.3719084225629</v>
       </c>
       <c r="Y16" t="n">
-        <v>580.5138526330672</v>
+        <v>580.5138526330677</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1792.950818160681</v>
+        <v>1792.950818160682</v>
       </c>
       <c r="C17" t="n">
-        <v>1518.962199628749</v>
+        <v>1518.96219962875</v>
       </c>
       <c r="D17" t="n">
-        <v>1255.670399430478</v>
+        <v>1255.670399430479</v>
       </c>
       <c r="E17" t="n">
-        <v>964.8560452407135</v>
+        <v>964.8560452407143</v>
       </c>
       <c r="F17" t="n">
-        <v>648.8440388595855</v>
+        <v>648.8440388595864</v>
       </c>
       <c r="G17" t="n">
         <v>326.5528799444979</v>
       </c>
       <c r="H17" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I17" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J17" t="n">
         <v>243.8279252593009</v>
       </c>
       <c r="K17" t="n">
-        <v>625.1936695733935</v>
+        <v>625.1936695733937</v>
       </c>
       <c r="L17" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M17" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N17" t="n">
         <v>2348.102865308523</v>
@@ -5533,31 +5533,31 @@
         <v>2865.989524423015</v>
       </c>
       <c r="P17" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338378</v>
       </c>
       <c r="Q17" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929903</v>
       </c>
       <c r="R17" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929903</v>
       </c>
       <c r="S17" t="n">
-        <v>3431.451773011835</v>
+        <v>3431.451773011837</v>
       </c>
       <c r="T17" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924152</v>
       </c>
       <c r="U17" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.117799032982</v>
       </c>
       <c r="V17" t="n">
         <v>2916.028810097891</v>
       </c>
       <c r="W17" t="n">
-        <v>2658.234053236256</v>
+        <v>2658.234053236257</v>
       </c>
       <c r="X17" t="n">
-        <v>2379.742193383656</v>
+        <v>2379.742193383657</v>
       </c>
       <c r="Y17" t="n">
         <v>2084.576759816324</v>
@@ -5591,25 +5591,25 @@
         <v>119.1052045322124</v>
       </c>
       <c r="I18" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J18" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="K18" t="n">
-        <v>384.3515287087259</v>
+        <v>122.5309440662732</v>
       </c>
       <c r="L18" t="n">
-        <v>868.5282177496242</v>
+        <v>454.1738591511922</v>
       </c>
       <c r="M18" t="n">
-        <v>1485.518798361604</v>
+        <v>1071.164439763172</v>
       </c>
       <c r="N18" t="n">
-        <v>2134.546297117068</v>
+        <v>1720.191938518637</v>
       </c>
       <c r="O18" t="n">
-        <v>2271.940286329295</v>
+        <v>2247.509623814825</v>
       </c>
       <c r="P18" t="n">
         <v>2653.725487735952</v>
@@ -5649,58 +5649,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>469.5242857757511</v>
+        <v>469.5242857757507</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5620012563237</v>
+        <v>395.5620012563234</v>
       </c>
       <c r="D19" t="n">
-        <v>340.4192602524675</v>
+        <v>340.4192602524673</v>
       </c>
       <c r="E19" t="n">
-        <v>287.4800650785539</v>
+        <v>287.4800650785537</v>
       </c>
       <c r="F19" t="n">
-        <v>235.564015989123</v>
+        <v>235.5640159891229</v>
       </c>
       <c r="G19" t="n">
-        <v>161.8515496797015</v>
+        <v>161.8515496797014</v>
       </c>
       <c r="H19" t="n">
-        <v>101.8638024461994</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I19" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9895208868019</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K19" t="n">
-        <v>325.0664744648109</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L19" t="n">
-        <v>591.3962405614976</v>
+        <v>591.396240561498</v>
       </c>
       <c r="M19" t="n">
-        <v>877.5327376228754</v>
+        <v>877.5327376228759</v>
       </c>
       <c r="N19" t="n">
-        <v>1092.052359467718</v>
+        <v>1092.052359467716</v>
       </c>
       <c r="O19" t="n">
-        <v>1348.215093692349</v>
+        <v>1348.215093692347</v>
       </c>
       <c r="P19" t="n">
-        <v>1557.320429455193</v>
+        <v>1557.320429455191</v>
       </c>
       <c r="Q19" t="n">
-        <v>1647.296483041256</v>
+        <v>1647.296483041255</v>
       </c>
       <c r="R19" t="n">
-        <v>1608.216924697278</v>
+        <v>1608.216924697277</v>
       </c>
       <c r="S19" t="n">
-        <v>1494.364726627561</v>
+        <v>1494.36472662756</v>
       </c>
       <c r="T19" t="n">
         <v>1363.369662300735</v>
@@ -5709,16 +5709,16 @@
         <v>1169.187046847988</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.476457050581</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W19" t="n">
-        <v>815.0331854220998</v>
+        <v>815.0331854220992</v>
       </c>
       <c r="X19" t="n">
-        <v>682.0175329325619</v>
+        <v>682.0175329325614</v>
       </c>
       <c r="Y19" t="n">
-        <v>556.1988521975113</v>
+        <v>556.1988521975109</v>
       </c>
     </row>
     <row r="20">
@@ -5737,52 +5737,52 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E20" t="n">
-        <v>964.8560452407137</v>
+        <v>964.8560452407138</v>
       </c>
       <c r="F20" t="n">
-        <v>648.8440388595855</v>
+        <v>648.8440388595858</v>
       </c>
       <c r="G20" t="n">
-        <v>326.5528799444979</v>
+        <v>326.5528799444983</v>
       </c>
       <c r="H20" t="n">
         <v>101.4881397966938</v>
       </c>
       <c r="I20" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J20" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593006</v>
       </c>
       <c r="K20" t="n">
-        <v>625.1936695733943</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L20" t="n">
-        <v>1150.588225603153</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M20" t="n">
-        <v>1751.797447352349</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N20" t="n">
-        <v>2348.102865308524</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O20" t="n">
-        <v>2865.989524423016</v>
+        <v>2865.989524423015</v>
       </c>
       <c r="P20" t="n">
         <v>3270.319423338378</v>
       </c>
       <c r="Q20" t="n">
-        <v>3496.732578929903</v>
+        <v>3496.732578929902</v>
       </c>
       <c r="R20" t="n">
-        <v>3496.732578929903</v>
+        <v>3496.732578929902</v>
       </c>
       <c r="S20" t="n">
         <v>3431.451773011836</v>
       </c>
       <c r="T20" t="n">
-        <v>3310.849785924151</v>
+        <v>3310.849785924152</v>
       </c>
       <c r="U20" t="n">
         <v>3152.117799032982</v>
@@ -5825,31 +5825,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H21" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I21" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J21" t="n">
-        <v>69.93465157859805</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K21" t="n">
-        <v>236.5696058519216</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L21" t="n">
-        <v>720.7462948928199</v>
+        <v>978.4044805826624</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.736875504799</v>
+        <v>1545.71339036329</v>
       </c>
       <c r="N21" t="n">
-        <v>1512.215423660146</v>
+        <v>1720.191938518637</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.533108956335</v>
+        <v>2247.509623814825</v>
       </c>
       <c r="P21" t="n">
-        <v>2445.748972877461</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q21" t="n">
         <v>2664.595750856579</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>469.524285775751</v>
+        <v>469.5242857757509</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5620012563236</v>
+        <v>395.5620012563235</v>
       </c>
       <c r="D22" t="n">
-        <v>340.4192602524674</v>
+        <v>340.4192602524673</v>
       </c>
       <c r="E22" t="n">
-        <v>287.4800650785538</v>
+        <v>287.4800650785537</v>
       </c>
       <c r="F22" t="n">
-        <v>235.564015989123</v>
+        <v>235.5640159891229</v>
       </c>
       <c r="G22" t="n">
-        <v>161.8515496797015</v>
+        <v>161.8515496797014</v>
       </c>
       <c r="H22" t="n">
-        <v>101.8638024461994</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I22" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9895208868019</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="K22" t="n">
-        <v>325.066474464811</v>
+        <v>255.0116051566071</v>
       </c>
       <c r="L22" t="n">
-        <v>518.9351077634966</v>
+        <v>521.3413712532939</v>
       </c>
       <c r="M22" t="n">
-        <v>805.0716048248744</v>
+        <v>807.4778683146717</v>
       </c>
       <c r="N22" t="n">
-        <v>1092.052359467718</v>
+        <v>1094.458622957515</v>
       </c>
       <c r="O22" t="n">
-        <v>1348.215093692348</v>
+        <v>1348.215093692347</v>
       </c>
       <c r="P22" t="n">
         <v>1557.320429455192</v>
@@ -5937,7 +5937,7 @@
         <v>1608.216924697277</v>
       </c>
       <c r="S22" t="n">
-        <v>1494.364726627561</v>
+        <v>1494.36472662756</v>
       </c>
       <c r="T22" t="n">
         <v>1363.369662300735</v>
@@ -5946,16 +5946,16 @@
         <v>1169.187046847988</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.476457050581</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W22" t="n">
-        <v>815.0331854220997</v>
+        <v>815.0331854220993</v>
       </c>
       <c r="X22" t="n">
-        <v>682.0175329325618</v>
+        <v>682.0175329325615</v>
       </c>
       <c r="Y22" t="n">
-        <v>556.1988521975112</v>
+        <v>556.198852197511</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>964.8560452407135</v>
       </c>
       <c r="F23" t="n">
-        <v>648.8440388595853</v>
+        <v>648.8440388595855</v>
       </c>
       <c r="G23" t="n">
         <v>326.5528799444979</v>
@@ -5986,34 +5986,34 @@
         <v>101.4881397966938</v>
       </c>
       <c r="I23" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J23" t="n">
-        <v>243.8279252593002</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K23" t="n">
-        <v>625.193669573393</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L23" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M23" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N23" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O23" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423015</v>
       </c>
       <c r="P23" t="n">
         <v>3270.319423338378</v>
       </c>
       <c r="Q23" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929903</v>
       </c>
       <c r="R23" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929903</v>
       </c>
       <c r="S23" t="n">
         <v>3431.451773011836</v>
@@ -6062,31 +6062,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H24" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I24" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J24" t="n">
-        <v>69.93465157859804</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K24" t="n">
-        <v>122.5309440662732</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L24" t="n">
-        <v>606.7076331071714</v>
+        <v>978.4044805826624</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.698213719151</v>
+        <v>1337.736875504799</v>
       </c>
       <c r="N24" t="n">
-        <v>1872.725712474615</v>
+        <v>1512.215423660146</v>
       </c>
       <c r="O24" t="n">
-        <v>2400.043397770804</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P24" t="n">
-        <v>2490.981120738393</v>
+        <v>2445.748972877461</v>
       </c>
       <c r="Q24" t="n">
         <v>2664.595750856579</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>469.524285775751</v>
+        <v>469.5242857757513</v>
       </c>
       <c r="C25" t="n">
-        <v>395.5620012563236</v>
+        <v>395.5620012563238</v>
       </c>
       <c r="D25" t="n">
-        <v>340.4192602524674</v>
+        <v>340.4192602524676</v>
       </c>
       <c r="E25" t="n">
-        <v>287.4800650785538</v>
+        <v>287.4800650785539</v>
       </c>
       <c r="F25" t="n">
-        <v>235.564015989123</v>
+        <v>235.5640159891231</v>
       </c>
       <c r="G25" t="n">
         <v>161.8515496797015</v>
@@ -6144,55 +6144,55 @@
         <v>101.8638024461994</v>
       </c>
       <c r="I25" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J25" t="n">
         <v>139.9895208868019</v>
       </c>
       <c r="K25" t="n">
-        <v>325.066474464811</v>
+        <v>325.0664744648109</v>
       </c>
       <c r="L25" t="n">
-        <v>591.3962405614977</v>
+        <v>591.3962405614976</v>
       </c>
       <c r="M25" t="n">
-        <v>877.5327376228755</v>
+        <v>877.5327376228754</v>
       </c>
       <c r="N25" t="n">
         <v>1164.513492265719</v>
       </c>
       <c r="O25" t="n">
-        <v>1420.67622649035</v>
+        <v>1420.676226490349</v>
       </c>
       <c r="P25" t="n">
-        <v>1629.781562253194</v>
+        <v>1629.781562253193</v>
       </c>
       <c r="Q25" t="n">
-        <v>1647.296483041255</v>
+        <v>1647.296483041256</v>
       </c>
       <c r="R25" t="n">
-        <v>1608.216924697277</v>
+        <v>1608.216924697278</v>
       </c>
       <c r="S25" t="n">
         <v>1494.364726627561</v>
       </c>
       <c r="T25" t="n">
-        <v>1363.369662300735</v>
+        <v>1363.369662300736</v>
       </c>
       <c r="U25" t="n">
-        <v>1169.187046847988</v>
+        <v>1169.187046847989</v>
       </c>
       <c r="V25" t="n">
         <v>1009.476457050581</v>
       </c>
       <c r="W25" t="n">
-        <v>815.0331854220997</v>
+        <v>815.0331854220999</v>
       </c>
       <c r="X25" t="n">
-        <v>682.0175329325618</v>
+        <v>682.0175329325621</v>
       </c>
       <c r="Y25" t="n">
-        <v>556.1988521975112</v>
+        <v>556.1988521975114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,40 +6205,40 @@
         <v>1768.635817725125</v>
       </c>
       <c r="C26" t="n">
-        <v>1491.607824138749</v>
+        <v>1491.607824138748</v>
       </c>
       <c r="D26" t="n">
-        <v>1236.27441143016</v>
+        <v>1225.276648886032</v>
       </c>
       <c r="E26" t="n">
-        <v>942.4206821859513</v>
+        <v>931.4229196418232</v>
       </c>
       <c r="F26" t="n">
-        <v>623.3693007503787</v>
+        <v>612.3715382062506</v>
       </c>
       <c r="G26" t="n">
-        <v>298.0387667808467</v>
+        <v>287.0410042367187</v>
       </c>
       <c r="H26" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="I26" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J26" t="n">
         <v>243.8279252593011</v>
       </c>
       <c r="K26" t="n">
-        <v>625.1936695733943</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L26" t="n">
         <v>1150.588225603152</v>
       </c>
       <c r="M26" t="n">
-        <v>1751.797447352349</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N26" t="n">
-        <v>2348.102865308524</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O26" t="n">
         <v>2865.989524423015</v>
@@ -6247,19 +6247,19 @@
         <v>3270.319423338378</v>
       </c>
       <c r="Q26" t="n">
-        <v>3496.732578929903</v>
+        <v>3496.732578929902</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.732578929903</v>
+        <v>3496.732578929902</v>
       </c>
       <c r="S26" t="n">
-        <v>3428.412397957392</v>
+        <v>3428.412397957391</v>
       </c>
       <c r="T26" t="n">
         <v>3304.771035815262</v>
       </c>
       <c r="U26" t="n">
-        <v>3142.999673869649</v>
+        <v>3142.999673869648</v>
       </c>
       <c r="V26" t="n">
         <v>2903.871309880113</v>
@@ -6299,31 +6299,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H27" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I27" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J27" t="n">
-        <v>69.93465157859805</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K27" t="n">
-        <v>122.5309440662732</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L27" t="n">
-        <v>606.7076331071715</v>
+        <v>978.4044805826624</v>
       </c>
       <c r="M27" t="n">
-        <v>1223.698213719151</v>
+        <v>1337.736875504799</v>
       </c>
       <c r="N27" t="n">
-        <v>1872.725712474616</v>
+        <v>1512.215423660146</v>
       </c>
       <c r="O27" t="n">
-        <v>2400.043397770804</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P27" t="n">
-        <v>2490.981120738393</v>
+        <v>2445.748972877461</v>
       </c>
       <c r="Q27" t="n">
         <v>2664.595750856579</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>490.7999111568629</v>
+        <v>490.799911156863</v>
       </c>
       <c r="C28" t="n">
-        <v>413.7982515829909</v>
+        <v>413.798251582991</v>
       </c>
       <c r="D28" t="n">
         <v>355.6161355246902</v>
       </c>
       <c r="E28" t="n">
-        <v>299.637565296332</v>
+        <v>299.6375652963321</v>
       </c>
       <c r="F28" t="n">
-        <v>244.6821411524566</v>
+        <v>244.6821411524567</v>
       </c>
       <c r="G28" t="n">
         <v>167.9302997885906</v>
@@ -6381,16 +6381,16 @@
         <v>104.9031775006439</v>
       </c>
       <c r="I28" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J28" t="n">
         <v>137.0106293959408</v>
       </c>
       <c r="K28" t="n">
-        <v>319.1086914830887</v>
+        <v>319.1086914830886</v>
       </c>
       <c r="L28" t="n">
-        <v>582.4595660889145</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M28" t="n">
         <v>865.6171716594311</v>
@@ -6408,13 +6408,13 @@
         <v>1695.926483912368</v>
       </c>
       <c r="R28" t="n">
-        <v>1653.807550513946</v>
+        <v>1653.807550513945</v>
       </c>
       <c r="S28" t="n">
         <v>1536.915977389784</v>
       </c>
       <c r="T28" t="n">
-        <v>1402.881538008515</v>
+        <v>1402.881538008514</v>
       </c>
       <c r="U28" t="n">
         <v>1205.659547501323</v>
@@ -6423,13 +6423,13 @@
         <v>1042.909582649471</v>
       </c>
       <c r="W28" t="n">
-        <v>845.426935966545</v>
+        <v>845.4269359665452</v>
       </c>
       <c r="X28" t="n">
-        <v>709.3719084225626</v>
+        <v>709.3719084225629</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.5138526330675</v>
+        <v>580.5138526330677</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1768.635817725125</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C29" t="n">
-        <v>1491.607824138749</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D29" t="n">
-        <v>1225.276648886033</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E29" t="n">
-        <v>931.4229196418237</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F29" t="n">
-        <v>612.3715382062511</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G29" t="n">
-        <v>287.0410042367191</v>
+        <v>332.6316300533871</v>
       </c>
       <c r="H29" t="n">
         <v>104.5275148511384</v>
       </c>
       <c r="I29" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J29" t="n">
         <v>243.8279252593009</v>
@@ -6487,28 +6487,28 @@
         <v>3496.732578929902</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.732578929903</v>
+        <v>3496.732578929902</v>
       </c>
       <c r="S29" t="n">
-        <v>3428.412397957392</v>
+        <v>3428.412397957391</v>
       </c>
       <c r="T29" t="n">
         <v>3304.771035815262</v>
       </c>
       <c r="U29" t="n">
-        <v>3142.999673869649</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V29" t="n">
-        <v>2903.871309880113</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W29" t="n">
-        <v>2643.037177964034</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X29" t="n">
-        <v>2361.505943056989</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y29" t="n">
-        <v>2063.301134435212</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="30">
@@ -6536,22 +6536,22 @@
         <v>220.937241300597</v>
       </c>
       <c r="H30" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I30" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J30" t="n">
-        <v>69.93465157859805</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K30" t="n">
-        <v>122.5309440662732</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L30" t="n">
-        <v>246.1973442927019</v>
+        <v>978.4044805826624</v>
       </c>
       <c r="M30" t="n">
-        <v>863.1879249046814</v>
+        <v>1337.736875504799</v>
       </c>
       <c r="N30" t="n">
         <v>1512.215423660146</v>
@@ -6618,19 +6618,19 @@
         <v>104.9031775006439</v>
       </c>
       <c r="I31" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J31" t="n">
-        <v>137.0106293959404</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K31" t="n">
-        <v>319.1086914830884</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L31" t="n">
-        <v>582.4595660889142</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M31" t="n">
-        <v>865.6171716594308</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N31" t="n">
         <v>1149.619034811413</v>
@@ -6642,7 +6642,7 @@
         <v>1608.929321817166</v>
       </c>
       <c r="Q31" t="n">
-        <v>1695.926483912368</v>
+        <v>1695.926483912367</v>
       </c>
       <c r="R31" t="n">
         <v>1653.807550513945</v>
@@ -6691,13 +6691,13 @@
         <v>648.8440388595855</v>
       </c>
       <c r="G32" t="n">
-        <v>326.5528799444979</v>
+        <v>326.552879944498</v>
       </c>
       <c r="H32" t="n">
         <v>101.4881397966938</v>
       </c>
       <c r="I32" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J32" t="n">
         <v>243.8279252593009</v>
@@ -6724,13 +6724,13 @@
         <v>3496.732578929902</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.732578929903</v>
+        <v>3496.732578929902</v>
       </c>
       <c r="S32" t="n">
         <v>3431.451773011836</v>
       </c>
       <c r="T32" t="n">
-        <v>3310.849785924152</v>
+        <v>3310.849785924151</v>
       </c>
       <c r="U32" t="n">
         <v>3152.117799032982</v>
@@ -6773,31 +6773,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H33" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I33" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J33" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="K33" t="n">
-        <v>122.5309440662732</v>
+        <v>384.3515287087259</v>
       </c>
       <c r="L33" t="n">
-        <v>606.7076331071715</v>
+        <v>868.5282177496242</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.698213719151</v>
+        <v>1485.518798361604</v>
       </c>
       <c r="N33" t="n">
-        <v>1872.725712474616</v>
+        <v>1659.99734651695</v>
       </c>
       <c r="O33" t="n">
-        <v>2400.043397770804</v>
+        <v>2187.315031813139</v>
       </c>
       <c r="P33" t="n">
-        <v>2653.725487735952</v>
+        <v>2593.530895734266</v>
       </c>
       <c r="Q33" t="n">
         <v>2664.595750856579</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2318.960381664398</v>
+        <v>469.524285775751</v>
       </c>
       <c r="C34" t="n">
-        <v>2244.99809714497</v>
+        <v>395.5620012563236</v>
       </c>
       <c r="D34" t="n">
-        <v>2189.855356141114</v>
+        <v>340.4192602524674</v>
       </c>
       <c r="E34" t="n">
-        <v>2136.916160967201</v>
+        <v>287.4800650785538</v>
       </c>
       <c r="F34" t="n">
-        <v>2085.00011187777</v>
+        <v>235.564015989123</v>
       </c>
       <c r="G34" t="n">
-        <v>2011.287645568348</v>
+        <v>161.8515496797015</v>
       </c>
       <c r="H34" t="n">
-        <v>1951.299898334846</v>
+        <v>101.8638024461994</v>
       </c>
       <c r="I34" t="n">
-        <v>1919.370747467245</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J34" t="n">
-        <v>1989.425616775449</v>
+        <v>139.9895208868019</v>
       </c>
       <c r="K34" t="n">
-        <v>2174.502570353457</v>
+        <v>252.6053416668098</v>
       </c>
       <c r="L34" t="n">
-        <v>2440.832336450144</v>
+        <v>518.9351077634966</v>
       </c>
       <c r="M34" t="n">
-        <v>2726.968833511522</v>
+        <v>805.0716048248744</v>
       </c>
       <c r="N34" t="n">
-        <v>3013.949588154365</v>
+        <v>1092.052359467718</v>
       </c>
       <c r="O34" t="n">
-        <v>3197.651189580995</v>
+        <v>1348.215093692348</v>
       </c>
       <c r="P34" t="n">
-        <v>3406.756525343839</v>
+        <v>1557.320429455192</v>
       </c>
       <c r="Q34" t="n">
-        <v>3496.732578929903</v>
+        <v>1647.296483041255</v>
       </c>
       <c r="R34" t="n">
-        <v>3457.653020585924</v>
+        <v>1608.216924697277</v>
       </c>
       <c r="S34" t="n">
-        <v>3343.800822516208</v>
+        <v>1494.364726627561</v>
       </c>
       <c r="T34" t="n">
-        <v>3212.805758189382</v>
+        <v>1363.369662300735</v>
       </c>
       <c r="U34" t="n">
-        <v>3018.623142736635</v>
+        <v>1169.187046847988</v>
       </c>
       <c r="V34" t="n">
-        <v>2858.912552939228</v>
+        <v>1009.476457050581</v>
       </c>
       <c r="W34" t="n">
-        <v>2664.469281310747</v>
+        <v>815.0331854220997</v>
       </c>
       <c r="X34" t="n">
-        <v>2531.453628821209</v>
+        <v>682.0175329325618</v>
       </c>
       <c r="Y34" t="n">
-        <v>2405.634948086158</v>
+        <v>556.1988521975112</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1792.950818160681</v>
+        <v>1792.950818160682</v>
       </c>
       <c r="C35" t="n">
         <v>1518.962199628749</v>
@@ -6922,25 +6922,25 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E35" t="n">
-        <v>964.8560452407135</v>
+        <v>964.8560452407137</v>
       </c>
       <c r="F35" t="n">
-        <v>648.8440388595855</v>
+        <v>648.8440388595856</v>
       </c>
       <c r="G35" t="n">
-        <v>326.5528799444979</v>
+        <v>326.552879944498</v>
       </c>
       <c r="H35" t="n">
         <v>101.4881397966938</v>
       </c>
       <c r="I35" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J35" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K35" t="n">
-        <v>625.1936695733937</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L35" t="n">
         <v>1150.588225603152</v>
@@ -6955,19 +6955,19 @@
         <v>2865.989524423015</v>
       </c>
       <c r="P35" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338378</v>
       </c>
       <c r="Q35" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929903</v>
       </c>
       <c r="R35" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929903</v>
       </c>
       <c r="S35" t="n">
-        <v>3431.451773011835</v>
+        <v>3431.451773011837</v>
       </c>
       <c r="T35" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924152</v>
       </c>
       <c r="U35" t="n">
         <v>3152.117799032982</v>
@@ -7010,31 +7010,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H36" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I36" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J36" t="n">
-        <v>69.93465157859802</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K36" t="n">
-        <v>384.3515287087259</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L36" t="n">
-        <v>868.5282177496242</v>
+        <v>978.4044805826624</v>
       </c>
       <c r="M36" t="n">
-        <v>1485.518798361604</v>
+        <v>1337.736875504799</v>
       </c>
       <c r="N36" t="n">
-        <v>1720.191938518637</v>
+        <v>1512.215423660146</v>
       </c>
       <c r="O36" t="n">
-        <v>2247.509623814825</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P36" t="n">
-        <v>2653.725487735952</v>
+        <v>2445.748972877461</v>
       </c>
       <c r="Q36" t="n">
         <v>2664.595750856579</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>469.524285775751</v>
+        <v>469.5242857757513</v>
       </c>
       <c r="C37" t="n">
-        <v>395.5620012563236</v>
+        <v>395.5620012563238</v>
       </c>
       <c r="D37" t="n">
-        <v>340.4192602524674</v>
+        <v>340.4192602524676</v>
       </c>
       <c r="E37" t="n">
-        <v>287.4800650785538</v>
+        <v>287.4800650785539</v>
       </c>
       <c r="F37" t="n">
-        <v>235.564015989123</v>
+        <v>235.5640159891231</v>
       </c>
       <c r="G37" t="n">
         <v>161.8515496797015</v>
       </c>
       <c r="H37" t="n">
-        <v>101.8638024461993</v>
+        <v>101.8638024461994</v>
       </c>
       <c r="I37" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859805</v>
       </c>
       <c r="J37" t="n">
         <v>139.9895208868019</v>
       </c>
       <c r="K37" t="n">
-        <v>325.066474464811</v>
+        <v>325.0664744648109</v>
       </c>
       <c r="L37" t="n">
-        <v>518.9351077634966</v>
+        <v>591.3962405614976</v>
       </c>
       <c r="M37" t="n">
-        <v>805.0716048248744</v>
+        <v>877.5327376228754</v>
       </c>
       <c r="N37" t="n">
-        <v>1092.052359467718</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O37" t="n">
-        <v>1348.215093692348</v>
+        <v>1420.676226490349</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.320429455192</v>
+        <v>1629.781562253193</v>
       </c>
       <c r="Q37" t="n">
-        <v>1647.296483041255</v>
+        <v>1647.296483041256</v>
       </c>
       <c r="R37" t="n">
-        <v>1608.216924697277</v>
+        <v>1608.216924697278</v>
       </c>
       <c r="S37" t="n">
         <v>1494.364726627561</v>
       </c>
       <c r="T37" t="n">
-        <v>1363.369662300735</v>
+        <v>1363.369662300736</v>
       </c>
       <c r="U37" t="n">
-        <v>1169.187046847988</v>
+        <v>1169.187046847989</v>
       </c>
       <c r="V37" t="n">
         <v>1009.476457050581</v>
       </c>
       <c r="W37" t="n">
-        <v>815.0331854220997</v>
+        <v>815.0331854220999</v>
       </c>
       <c r="X37" t="n">
-        <v>682.0175329325618</v>
+        <v>682.0175329325621</v>
       </c>
       <c r="Y37" t="n">
-        <v>556.1988521975112</v>
+        <v>556.1988521975114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1792.950818160682</v>
+        <v>1792.950818160681</v>
       </c>
       <c r="C38" t="n">
-        <v>1518.96219962875</v>
+        <v>1518.962199628749</v>
       </c>
       <c r="D38" t="n">
         <v>1255.670399430478</v>
       </c>
       <c r="E38" t="n">
-        <v>964.8560452407137</v>
+        <v>964.8560452407135</v>
       </c>
       <c r="F38" t="n">
-        <v>648.8440388595856</v>
+        <v>648.8440388595855</v>
       </c>
       <c r="G38" t="n">
-        <v>326.552879944498</v>
+        <v>326.5528799444979</v>
       </c>
       <c r="H38" t="n">
         <v>101.4881397966938</v>
@@ -7177,19 +7177,19 @@
         <v>243.8279252593011</v>
       </c>
       <c r="K38" t="n">
-        <v>625.1936695733943</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L38" t="n">
-        <v>1150.588225603153</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M38" t="n">
-        <v>1751.797447352349</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N38" t="n">
-        <v>2348.102865308524</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O38" t="n">
-        <v>2865.989524423016</v>
+        <v>2865.989524423015</v>
       </c>
       <c r="P38" t="n">
         <v>3270.319423338378</v>
@@ -7201,22 +7201,22 @@
         <v>3496.732578929903</v>
       </c>
       <c r="S38" t="n">
-        <v>3431.451773011836</v>
+        <v>3431.451773011837</v>
       </c>
       <c r="T38" t="n">
-        <v>3310.849785924151</v>
+        <v>3310.849785924152</v>
       </c>
       <c r="U38" t="n">
-        <v>3152.117799032983</v>
+        <v>3152.117799032982</v>
       </c>
       <c r="V38" t="n">
-        <v>2916.028810097892</v>
+        <v>2916.028810097891</v>
       </c>
       <c r="W38" t="n">
-        <v>2658.234053236257</v>
+        <v>2658.234053236256</v>
       </c>
       <c r="X38" t="n">
-        <v>2379.742193383657</v>
+        <v>2379.742193383656</v>
       </c>
       <c r="Y38" t="n">
         <v>2084.576759816324</v>
@@ -7253,13 +7253,13 @@
         <v>69.93465157859805</v>
       </c>
       <c r="J39" t="n">
-        <v>69.93465157859805</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K39" t="n">
-        <v>236.5696058519216</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L39" t="n">
-        <v>720.7462948928199</v>
+        <v>978.4044805826624</v>
       </c>
       <c r="M39" t="n">
         <v>1337.736875504799</v>
@@ -7411,7 +7411,7 @@
         <v>69.93465157859805</v>
       </c>
       <c r="J41" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593012</v>
       </c>
       <c r="K41" t="n">
         <v>625.1936695733939</v>
@@ -7438,7 +7438,7 @@
         <v>3496.732578929903</v>
       </c>
       <c r="S41" t="n">
-        <v>3474.00302377406</v>
+        <v>3428.412397957392</v>
       </c>
       <c r="T41" t="n">
         <v>3350.36166163193</v>
@@ -7490,25 +7490,25 @@
         <v>69.93465157859805</v>
       </c>
       <c r="J42" t="n">
-        <v>69.93465157859805</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K42" t="n">
-        <v>122.5309440662732</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L42" t="n">
-        <v>606.7076331071715</v>
+        <v>978.4044805826624</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.698213719151</v>
+        <v>1337.736875504799</v>
       </c>
       <c r="N42" t="n">
-        <v>1872.725712474616</v>
+        <v>1512.215423660146</v>
       </c>
       <c r="O42" t="n">
-        <v>2400.043397770804</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P42" t="n">
-        <v>2490.981120738393</v>
+        <v>2445.748972877461</v>
       </c>
       <c r="Q42" t="n">
         <v>2664.595750856579</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>490.7999111568627</v>
+        <v>490.7999111568629</v>
       </c>
       <c r="C43" t="n">
-        <v>413.7982515829908</v>
+        <v>413.798251582991</v>
       </c>
       <c r="D43" t="n">
-        <v>355.61613552469</v>
+        <v>355.6161355246902</v>
       </c>
       <c r="E43" t="n">
-        <v>299.6375652963318</v>
+        <v>299.6375652963321</v>
       </c>
       <c r="F43" t="n">
-        <v>244.6821411524564</v>
+        <v>244.6821411524567</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9302997885902</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H43" t="n">
-        <v>104.9031775006436</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I43" t="n">
         <v>69.93465157859805</v>
@@ -7575,10 +7575,10 @@
         <v>319.1086914830888</v>
       </c>
       <c r="L43" t="n">
-        <v>582.4595660889144</v>
+        <v>582.4595660889145</v>
       </c>
       <c r="M43" t="n">
-        <v>865.6171716594311</v>
+        <v>865.6171716594312</v>
       </c>
       <c r="N43" t="n">
         <v>1149.619034811413</v>
@@ -7599,7 +7599,7 @@
         <v>1536.915977389784</v>
       </c>
       <c r="T43" t="n">
-        <v>1402.881538008514</v>
+        <v>1402.881538008515</v>
       </c>
       <c r="U43" t="n">
         <v>1205.659547501323</v>
@@ -7608,13 +7608,13 @@
         <v>1042.909582649471</v>
       </c>
       <c r="W43" t="n">
-        <v>845.4269359665452</v>
+        <v>845.426935966545</v>
       </c>
       <c r="X43" t="n">
-        <v>709.3719084225628</v>
+        <v>709.3719084225626</v>
       </c>
       <c r="Y43" t="n">
-        <v>580.5138526330675</v>
+        <v>580.5138526330677</v>
       </c>
     </row>
     <row r="44">
@@ -7639,43 +7639,43 @@
         <v>657.9621640229191</v>
       </c>
       <c r="G44" t="n">
-        <v>332.6316300533871</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H44" t="n">
-        <v>104.5275148511384</v>
+        <v>104.5275148511383</v>
       </c>
       <c r="I44" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859806</v>
       </c>
       <c r="J44" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K44" t="n">
-        <v>625.1936695733937</v>
+        <v>625.1936695733941</v>
       </c>
       <c r="L44" t="n">
         <v>1150.588225603152</v>
       </c>
       <c r="M44" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352349</v>
       </c>
       <c r="N44" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.102865308524</v>
       </c>
       <c r="O44" t="n">
-        <v>2865.989524423015</v>
+        <v>2865.989524423016</v>
       </c>
       <c r="P44" t="n">
-        <v>3270.319423338378</v>
+        <v>3270.319423338379</v>
       </c>
       <c r="Q44" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929903</v>
       </c>
       <c r="R44" t="n">
         <v>3496.732578929903</v>
       </c>
       <c r="S44" t="n">
-        <v>3428.412397957392</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T44" t="n">
         <v>3350.36166163193</v>
@@ -7724,28 +7724,28 @@
         <v>119.1052045322124</v>
       </c>
       <c r="I45" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859806</v>
       </c>
       <c r="J45" t="n">
-        <v>69.93465157859805</v>
+        <v>179.8109144116362</v>
       </c>
       <c r="K45" t="n">
-        <v>285.2753110638321</v>
+        <v>494.2277915417642</v>
       </c>
       <c r="L45" t="n">
-        <v>769.4520001047305</v>
+        <v>978.4044805826626</v>
       </c>
       <c r="M45" t="n">
-        <v>1386.44258071671</v>
+        <v>1337.736875504799</v>
       </c>
       <c r="N45" t="n">
-        <v>2035.470079472174</v>
+        <v>1512.215423660146</v>
       </c>
       <c r="O45" t="n">
-        <v>2562.787764768363</v>
+        <v>2039.533108956334</v>
       </c>
       <c r="P45" t="n">
-        <v>2653.725487735952</v>
+        <v>2445.748972877461</v>
       </c>
       <c r="Q45" t="n">
         <v>2664.595750856579</v>
@@ -7785,25 +7785,25 @@
         <v>490.7999111568631</v>
       </c>
       <c r="C46" t="n">
-        <v>413.7982515829911</v>
+        <v>413.7982515829909</v>
       </c>
       <c r="D46" t="n">
-        <v>355.6161355246903</v>
+        <v>355.6161355246902</v>
       </c>
       <c r="E46" t="n">
-        <v>299.6375652963322</v>
+        <v>299.637565296332</v>
       </c>
       <c r="F46" t="n">
-        <v>244.6821411524568</v>
+        <v>244.6821411524566</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9302997885907</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H46" t="n">
         <v>104.9031775006439</v>
       </c>
       <c r="I46" t="n">
-        <v>69.93465157859805</v>
+        <v>69.93465157859806</v>
       </c>
       <c r="J46" t="n">
         <v>137.0106293959408</v>
@@ -7815,7 +7815,7 @@
         <v>582.4595660889145</v>
       </c>
       <c r="M46" t="n">
-        <v>865.6171716594312</v>
+        <v>865.6171716594313</v>
       </c>
       <c r="N46" t="n">
         <v>1149.619034811413</v>
@@ -7830,13 +7830,13 @@
         <v>1695.926483912368</v>
       </c>
       <c r="R46" t="n">
-        <v>1653.807550513945</v>
+        <v>1653.807550513946</v>
       </c>
       <c r="S46" t="n">
         <v>1536.915977389784</v>
       </c>
       <c r="T46" t="n">
-        <v>1402.881538008514</v>
+        <v>1402.881538008515</v>
       </c>
       <c r="U46" t="n">
         <v>1205.659547501323</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>15.1049112666331</v>
+        <v>15.10491126663298</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>311.6305446025484</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>164.3882494924834</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>15.10491126663305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>207.9283651575792</v>
+        <v>205.4442701238958</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>15.10491126663301</v>
+        <v>15.10491126663297</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>216.7658261560053</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9257,10 +9257,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>293.7853317566345</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>15.10491126663298</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>115.1905674602509</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>415.5215578597455</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>15.10491126663298</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>205.4442701238964</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.388249492484</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>15.10491126663298</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>205.4442701238964</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>164.3882494924835</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>15.10491126663298</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>6.68853842015659</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>205.4442701238964</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10430,7 +10430,7 @@
         <v>15.10491126663298</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>164.3882494924834</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>60.80261818352126</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714817</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>15.10491126663298</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>205.4442701238964</v>
       </c>
       <c r="N36" t="n">
-        <v>60.80261818352142</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>15.10491126663298</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>115.1905674602509</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>205.4442701238964</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>15.10491126663298</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>205.4442701238964</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>164.3882494924835</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>15.10491126663298</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>164.3882494924838</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>205.4442701238958</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>45.13471955850443</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>45.13471955850137</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>45.13471955850127</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.13471955850106</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>10.88778491868604</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>10.88778491868678</v>
       </c>
       <c r="I26" t="n">
-        <v>34.2469346398149</v>
+        <v>34.24693463981491</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>45.1347195585013</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>45.13471955850183</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>45.13471955850109</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>45.13471955850106</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>45.13471955850063</v>
       </c>
       <c r="T44" t="n">
-        <v>45.13471955850106</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>629487.8489336865</v>
+        <v>629487.8489336866</v>
       </c>
     </row>
     <row r="6">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>629487.8489336866</v>
+        <v>629487.8489336867</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>817449.0461874262</v>
+        <v>817449.0461874267</v>
       </c>
       <c r="F2" t="n">
-        <v>817449.0461874264</v>
+        <v>817449.0461874268</v>
       </c>
       <c r="G2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="H2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="I2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="J2" t="n">
-        <v>817449.0461874264</v>
+        <v>817449.0461874265</v>
       </c>
       <c r="K2" t="n">
-        <v>817449.0461874267</v>
+        <v>817449.0461874265</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="M2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="N2" t="n">
         <v>821041.7698642832</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642833</v>
       </c>
       <c r="O2" t="n">
         <v>817449.0461874265</v>
       </c>
       <c r="P2" t="n">
-        <v>817449.0461874282</v>
+        <v>817449.0461874285</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>703589.2920394258</v>
+        <v>703589.2920394264</v>
       </c>
       <c r="F3" t="n">
-        <v>3.193522398904789e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2407.185043120212</v>
+        <v>2407.185043120126</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>133464.9000523819</v>
+        <v>133464.9000523818</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4814.370086240126</v>
+        <v>4814.370086240217</v>
       </c>
       <c r="M3" t="n">
-        <v>157788.2115544435</v>
+        <v>157788.2115544437</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>67997.77241015558</v>
+        <v>67997.77241015557</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295860.2172754402</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="C4" t="n">
         <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>295860.2172754402</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="E4" t="n">
-        <v>109489.831353481</v>
+        <v>109489.8313534809</v>
       </c>
       <c r="F4" t="n">
-        <v>109489.831353481</v>
+        <v>109489.8313534809</v>
       </c>
       <c r="G4" t="n">
         <v>111525.2810143029</v>
@@ -26441,7 +26441,7 @@
         <v>111525.2810143029</v>
       </c>
       <c r="J4" t="n">
-        <v>109489.8313534809</v>
+        <v>109489.831353481</v>
       </c>
       <c r="K4" t="n">
         <v>109489.8313534809</v>
@@ -26459,7 +26459,7 @@
         <v>109489.8313534809</v>
       </c>
       <c r="P4" t="n">
-        <v>109489.8313534809</v>
+        <v>109489.831353481</v>
       </c>
     </row>
     <row r="5">
@@ -26478,31 +26478,31 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>72787.96136398583</v>
+        <v>72787.96136398589</v>
       </c>
       <c r="F5" t="n">
-        <v>72787.96136398586</v>
+        <v>72787.96136398589</v>
       </c>
       <c r="G5" t="n">
-        <v>73040.92341322344</v>
+        <v>73040.92341322347</v>
       </c>
       <c r="H5" t="n">
+        <v>73040.92341322346</v>
+      </c>
+      <c r="I5" t="n">
         <v>73040.92341322347</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
+        <v>72787.96136398587</v>
+      </c>
+      <c r="K5" t="n">
+        <v>72787.96136398587</v>
+      </c>
+      <c r="L5" t="n">
         <v>73040.92341322346</v>
       </c>
-      <c r="J5" t="n">
-        <v>72787.96136398589</v>
-      </c>
-      <c r="K5" t="n">
-        <v>72787.96136398589</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>73040.92341322347</v>
-      </c>
-      <c r="M5" t="n">
-        <v>73040.92341322344</v>
       </c>
       <c r="N5" t="n">
         <v>73040.92341322347</v>
@@ -26511,7 +26511,7 @@
         <v>72787.96136398589</v>
       </c>
       <c r="P5" t="n">
-        <v>72787.96136398589</v>
+        <v>72787.9613639859</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>476900.2838250812</v>
       </c>
       <c r="D6" t="n">
-        <v>476900.2838250811</v>
+        <v>476900.2838250814</v>
       </c>
       <c r="E6" t="n">
-        <v>-68418.03856946641</v>
+        <v>-68507.85666138794</v>
       </c>
       <c r="F6" t="n">
-        <v>635171.2534699591</v>
+        <v>635081.4353780386</v>
       </c>
       <c r="G6" t="n">
-        <v>634068.3803936368</v>
+        <v>634068.3803936366</v>
       </c>
       <c r="H6" t="n">
-        <v>636475.5654367568</v>
+        <v>636475.5654367567</v>
       </c>
       <c r="I6" t="n">
         <v>636475.5654367566</v>
       </c>
       <c r="J6" t="n">
-        <v>501706.3534175777</v>
+        <v>501616.5353256565</v>
       </c>
       <c r="K6" t="n">
-        <v>635171.2534699598</v>
+        <v>635081.4353780383</v>
       </c>
       <c r="L6" t="n">
-        <v>631661.1953505167</v>
+        <v>631661.1953505164</v>
       </c>
       <c r="M6" t="n">
-        <v>478687.3538823132</v>
+        <v>478687.3538823129</v>
       </c>
       <c r="N6" t="n">
-        <v>636475.5654367568</v>
+        <v>636475.5654367567</v>
       </c>
       <c r="O6" t="n">
-        <v>567173.4810598041</v>
+        <v>567083.6629678827</v>
       </c>
       <c r="P6" t="n">
-        <v>635171.2534699613</v>
+        <v>635081.4353780403</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="F2" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="G2" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="H2" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="I2" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="J2" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="K2" t="n">
         <v>91.0151781204946</v>
@@ -26718,7 +26718,7 @@
         <v>94.02415942439471</v>
       </c>
       <c r="M2" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="N2" t="n">
         <v>94.02415942439468</v>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>549.819777744931</v>
+        <v>549.8197777449316</v>
       </c>
       <c r="F3" t="n">
-        <v>549.8197777449312</v>
+        <v>549.8197777449317</v>
       </c>
       <c r="G3" t="n">
-        <v>549.8197777449315</v>
+        <v>549.8197777449317</v>
       </c>
       <c r="H3" t="n">
         <v>549.8197777449316</v>
@@ -26779,7 +26779,7 @@
         <v>549.8197777449316</v>
       </c>
       <c r="P3" t="n">
-        <v>549.8197777449316</v>
+        <v>549.8197777449317</v>
       </c>
     </row>
     <row r="4">
@@ -26798,31 +26798,31 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>874.1831447324748</v>
+        <v>874.1831447324756</v>
       </c>
       <c r="F4" t="n">
-        <v>874.1831447324753</v>
+        <v>874.1831447324756</v>
       </c>
       <c r="G4" t="n">
-        <v>874.1831447324754</v>
+        <v>874.1831447324756</v>
       </c>
       <c r="H4" t="n">
+        <v>874.1831447324755</v>
+      </c>
+      <c r="I4" t="n">
         <v>874.1831447324756</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>874.1831447324755</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>874.1831447324755</v>
+      </c>
+      <c r="L4" t="n">
+        <v>874.1831447324755</v>
+      </c>
+      <c r="M4" t="n">
         <v>874.1831447324756</v>
-      </c>
-      <c r="K4" t="n">
-        <v>874.1831447324756</v>
-      </c>
-      <c r="L4" t="n">
-        <v>874.1831447324756</v>
-      </c>
-      <c r="M4" t="n">
-        <v>874.1831447324753</v>
       </c>
       <c r="N4" t="n">
         <v>874.1831447324756</v>
@@ -26831,7 +26831,7 @@
         <v>874.1831447324756</v>
       </c>
       <c r="P4" t="n">
-        <v>874.1831447324756</v>
+        <v>874.1831447324757</v>
       </c>
     </row>
   </sheetData>
@@ -26916,37 +26916,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.008981303900043</v>
+        <v>3.008981303900157</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>88.00619681659455</v>
+        <v>88.00619681659452</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.017962607800158</v>
+        <v>6.017962607800271</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>84.99721551269448</v>
+        <v>84.99721551269445</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>549.819777744931</v>
+        <v>549.8197777449316</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>633.1688558548158</v>
+        <v>633.1688558548165</v>
       </c>
       <c r="F4" t="n">
-        <v>4.079507181213227e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>633.1688558548155</v>
+        <v>633.1688558548165</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.008981303900043</v>
+        <v>3.008981303900157</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.00619681659455</v>
+        <v>88.00619681659452</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>633.1688558548158</v>
+        <v>633.1688558548165</v>
       </c>
       <c r="N4" t="n">
-        <v>4.079507181213227e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>325.8706680867786</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>183.1354984266066</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>37.81437034802966</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27517,10 +27517,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27581,10 +27581,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9811766033053</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>329.2548215453339</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27703,16 +27703,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>189.1375671213976</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>226.4219686350087</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>119.7495544039028</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,7 +27867,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>214.9666412263055</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27897,31 +27897,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>194.1778919984228</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>48.9162898182288</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>106.524834437324</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>36.78129424836629</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>46.33425578299912</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="C11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="D11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="E11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="F11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="G11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="H11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="I11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.02442803654657</v>
+        <v>11.02442803654642</v>
       </c>
       <c r="S11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="T11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="U11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="V11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="W11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="X11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="C13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="D13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="E13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="F13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="G13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="H13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="I13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="J13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="K13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="L13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="M13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="N13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="O13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="P13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="R13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="S13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="T13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="U13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="V13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="W13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="X13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.01517812049464</v>
+        <v>91.0151781204946</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="C14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="D14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="E14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="F14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="G14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="H14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="I14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.02442803654651</v>
+        <v>11.0244280365464</v>
       </c>
       <c r="S14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="T14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="U14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="V14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="W14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="X14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="C16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="D16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="E16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="F16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="G16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="H16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="I16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="J16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049504</v>
       </c>
       <c r="K16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="L16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="M16" t="n">
-        <v>91.01517812049403</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="N16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="O16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="P16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="R16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="S16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="T16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="U16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="V16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="W16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="X16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.0151781204946</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="C17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="D17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="E17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="F17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="G17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="H17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="I17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28611,28 +28611,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>11.02442803654645</v>
+        <v>11.0244280365464</v>
       </c>
       <c r="S17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="T17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="U17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="V17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="W17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="X17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="C19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="D19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="E19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="F19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="G19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="H19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="I19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="J19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="K19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="L19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="M19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="N19" t="n">
-        <v>20.83109599207063</v>
+        <v>20.83109599206853</v>
       </c>
       <c r="O19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="P19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="R19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="S19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="T19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="U19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="V19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="W19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="X19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439475</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="C20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="D20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="E20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="F20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="G20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="H20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="I20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>11.02442803654642</v>
       </c>
       <c r="S20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="T20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="U20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="V20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="W20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="X20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="C22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="D22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="E22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="F22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="G22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="H22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="I22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="J22" t="n">
-        <v>94.02415942439471</v>
+        <v>23.26166517368372</v>
       </c>
       <c r="K22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="L22" t="n">
-        <v>20.83109599207032</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="M22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="N22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="O22" t="n">
-        <v>94.02415942439471</v>
+        <v>91.59359024278012</v>
       </c>
       <c r="P22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="R22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="S22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="T22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="U22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="V22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="W22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="X22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439474</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="C23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="D23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="E23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="F23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="G23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="H23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="I23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>11.02442803654642</v>
       </c>
       <c r="S23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="T23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="U23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="V23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="W23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="X23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="C25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="D25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="E25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="F25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="G25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="H25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="I25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="J25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="K25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="L25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="M25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="N25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="O25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="P25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.8310959920701</v>
+        <v>20.83109599207079</v>
       </c>
       <c r="R25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="S25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="T25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="U25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="V25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="W25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="X25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>11.02442803654642</v>
       </c>
       <c r="S26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="K28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="L28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="M28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="N28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="O28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="P28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="R28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="S28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="29">
@@ -29933,7 +29933,7 @@
         <v>94.02415942439471</v>
       </c>
       <c r="K34" t="n">
-        <v>94.02415942439471</v>
+        <v>20.8310959920703</v>
       </c>
       <c r="L34" t="n">
         <v>94.02415942439471</v>
@@ -29945,7 +29945,7 @@
         <v>94.02415942439471</v>
       </c>
       <c r="O34" t="n">
-        <v>20.83109599207046</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="P34" t="n">
         <v>94.02415942439471</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="C35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="D35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="E35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="F35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="G35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="H35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="I35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>11.02442803654642</v>
       </c>
       <c r="S35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="T35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="U35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="V35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="W35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="X35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="Y35" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="C37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="D37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="E37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="F37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="G37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="H37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="I37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="J37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="K37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83109599207032</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="M37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="N37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="O37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="P37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.02415942439471</v>
+        <v>20.83109599207079</v>
       </c>
       <c r="R37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="S37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="T37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="U37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="V37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="W37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="X37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439468</v>
       </c>
     </row>
     <row r="38">
@@ -30744,7 +30744,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>11.02442803654642</v>
+        <v>11.0244280365464</v>
       </c>
       <c r="S44" t="n">
         <v>91.01517812049461</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.210330764803741</v>
+        <v>2.210330764803743</v>
       </c>
       <c r="H11" t="n">
-        <v>22.63654994504632</v>
+        <v>22.63654994504634</v>
       </c>
       <c r="I11" t="n">
-        <v>85.21377681009631</v>
+        <v>85.21377681009639</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5990607492617</v>
+        <v>187.5990607492619</v>
       </c>
       <c r="K11" t="n">
-        <v>281.1623620234041</v>
+        <v>281.1623620234044</v>
       </c>
       <c r="L11" t="n">
-        <v>348.8067721667667</v>
+        <v>348.806772166767</v>
       </c>
       <c r="M11" t="n">
-        <v>388.1147419053452</v>
+        <v>388.1147419053456</v>
       </c>
       <c r="N11" t="n">
-        <v>394.3948441908439</v>
+        <v>394.3948441908443</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4158676483266</v>
+        <v>372.415867648327</v>
       </c>
       <c r="P11" t="n">
-        <v>317.8483268922342</v>
+        <v>317.8483268922345</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.6908563777002</v>
+        <v>238.6908563777004</v>
       </c>
       <c r="R11" t="n">
-        <v>138.8446899046031</v>
+        <v>138.8446899046033</v>
       </c>
       <c r="S11" t="n">
-        <v>50.3679123029653</v>
+        <v>50.36791230296535</v>
       </c>
       <c r="T11" t="n">
-        <v>9.675722922928381</v>
+        <v>9.675722922928392</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1768264611842993</v>
+        <v>0.1768264611842994</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.182631220055135</v>
+        <v>1.182631220055136</v>
       </c>
       <c r="H12" t="n">
-        <v>11.42172783579564</v>
+        <v>11.42172783579566</v>
       </c>
       <c r="I12" t="n">
-        <v>40.71778542733688</v>
+        <v>40.71778542733692</v>
       </c>
       <c r="J12" t="n">
-        <v>111.7327154000336</v>
+        <v>111.7327154000337</v>
       </c>
       <c r="K12" t="n">
-        <v>190.9690071437276</v>
+        <v>190.9690071437278</v>
       </c>
       <c r="L12" t="n">
-        <v>256.7813971439888</v>
+        <v>256.7813971439891</v>
       </c>
       <c r="M12" t="n">
-        <v>299.6517788709874</v>
+        <v>299.6517788709876</v>
       </c>
       <c r="N12" t="n">
-        <v>307.5826698160063</v>
+        <v>307.5826698160066</v>
       </c>
       <c r="O12" t="n">
-        <v>281.3780517295214</v>
+        <v>281.3780517295217</v>
       </c>
       <c r="P12" t="n">
-        <v>225.8306932401775</v>
+        <v>225.8306932401777</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.9618378442309</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R12" t="n">
-        <v>73.42687522412497</v>
+        <v>73.42687522412504</v>
       </c>
       <c r="S12" t="n">
-        <v>21.96685621462058</v>
+        <v>21.9668562146206</v>
       </c>
       <c r="T12" t="n">
-        <v>4.766833733467844</v>
+        <v>4.766833733467848</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0778046855299431</v>
+        <v>0.07780468552994318</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9914782877367607</v>
+        <v>0.9914782877367617</v>
       </c>
       <c r="H13" t="n">
-        <v>8.815143321877752</v>
+        <v>8.815143321877761</v>
       </c>
       <c r="I13" t="n">
-        <v>29.81645614393823</v>
+        <v>29.81645614393826</v>
       </c>
       <c r="J13" t="n">
-        <v>70.09751494298898</v>
+        <v>70.09751494298905</v>
       </c>
       <c r="K13" t="n">
-        <v>115.1917501570527</v>
+        <v>115.1917501570528</v>
       </c>
       <c r="L13" t="n">
-        <v>147.4057810695181</v>
+        <v>147.4057810695182</v>
       </c>
       <c r="M13" t="n">
-        <v>155.4187283222269</v>
+        <v>155.4187283222271</v>
       </c>
       <c r="N13" t="n">
-        <v>151.7232183406628</v>
+        <v>151.7232183406629</v>
       </c>
       <c r="O13" t="n">
-        <v>140.1409492521015</v>
+        <v>140.1409492521016</v>
       </c>
       <c r="P13" t="n">
-        <v>119.9147921822715</v>
+        <v>119.9147921822716</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.02278643948458</v>
+        <v>83.02278643948466</v>
       </c>
       <c r="R13" t="n">
-        <v>44.58046919223652</v>
+        <v>44.58046919223656</v>
       </c>
       <c r="S13" t="n">
-        <v>17.2787625235579</v>
+        <v>17.27876252355792</v>
       </c>
       <c r="T13" t="n">
-        <v>4.236316320329795</v>
+        <v>4.236316320329799</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05408063387655065</v>
+        <v>0.0540806338765507</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.210330764803742</v>
+        <v>2.210330764803744</v>
       </c>
       <c r="H14" t="n">
-        <v>22.63654994504633</v>
+        <v>22.63654994504635</v>
       </c>
       <c r="I14" t="n">
-        <v>85.21377681009635</v>
+        <v>85.21377681009642</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5990607492618</v>
+        <v>187.5990607492619</v>
       </c>
       <c r="K14" t="n">
-        <v>281.1623620234042</v>
+        <v>281.1623620234045</v>
       </c>
       <c r="L14" t="n">
-        <v>348.8067721667668</v>
+        <v>348.8067721667671</v>
       </c>
       <c r="M14" t="n">
-        <v>388.1147419053453</v>
+        <v>388.1147419053457</v>
       </c>
       <c r="N14" t="n">
-        <v>394.394844190844</v>
+        <v>394.3948441908443</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4158676483268</v>
+        <v>372.4158676483271</v>
       </c>
       <c r="P14" t="n">
-        <v>317.8483268922344</v>
+        <v>317.8483268922346</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.6908563777002</v>
+        <v>238.6908563777004</v>
       </c>
       <c r="R14" t="n">
-        <v>138.8446899046032</v>
+        <v>138.8446899046033</v>
       </c>
       <c r="S14" t="n">
-        <v>50.36791230296532</v>
+        <v>50.36791230296537</v>
       </c>
       <c r="T14" t="n">
-        <v>9.675722922928385</v>
+        <v>9.675722922928394</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1768264611842993</v>
+        <v>0.1768264611842995</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.182631220055135</v>
+        <v>1.182631220055136</v>
       </c>
       <c r="H15" t="n">
-        <v>11.42172783579565</v>
+        <v>11.42172783579566</v>
       </c>
       <c r="I15" t="n">
-        <v>40.71778542733689</v>
+        <v>40.71778542733693</v>
       </c>
       <c r="J15" t="n">
-        <v>111.7327154000336</v>
+        <v>111.7327154000337</v>
       </c>
       <c r="K15" t="n">
-        <v>190.9690071437277</v>
+        <v>190.9690071437279</v>
       </c>
       <c r="L15" t="n">
-        <v>256.7813971439889</v>
+        <v>256.7813971439891</v>
       </c>
       <c r="M15" t="n">
-        <v>299.6517788709875</v>
+        <v>299.6517788709878</v>
       </c>
       <c r="N15" t="n">
-        <v>307.5826698160064</v>
+        <v>307.5826698160067</v>
       </c>
       <c r="O15" t="n">
-        <v>281.3780517295215</v>
+        <v>281.3780517295218</v>
       </c>
       <c r="P15" t="n">
-        <v>225.8306932401775</v>
+        <v>225.8306932401777</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.961837844231</v>
+        <v>150.9618378442311</v>
       </c>
       <c r="R15" t="n">
-        <v>73.426875224125</v>
+        <v>73.42687522412506</v>
       </c>
       <c r="S15" t="n">
-        <v>21.96685621462059</v>
+        <v>21.96685621462061</v>
       </c>
       <c r="T15" t="n">
-        <v>4.766833733467846</v>
+        <v>4.766833733467849</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07780468552994313</v>
+        <v>0.0778046855299432</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9914782877367612</v>
+        <v>0.9914782877367619</v>
       </c>
       <c r="H16" t="n">
-        <v>8.815143321877756</v>
+        <v>8.815143321877763</v>
       </c>
       <c r="I16" t="n">
-        <v>29.81645614393824</v>
+        <v>29.81645614393827</v>
       </c>
       <c r="J16" t="n">
-        <v>70.09751494298901</v>
+        <v>70.09751494298906</v>
       </c>
       <c r="K16" t="n">
-        <v>115.1917501570528</v>
+        <v>115.1917501570529</v>
       </c>
       <c r="L16" t="n">
-        <v>147.4057810695181</v>
+        <v>147.4057810695182</v>
       </c>
       <c r="M16" t="n">
-        <v>155.418728322227</v>
+        <v>155.4187283222271</v>
       </c>
       <c r="N16" t="n">
-        <v>151.7232183406628</v>
+        <v>151.723218340663</v>
       </c>
       <c r="O16" t="n">
-        <v>140.1409492521015</v>
+        <v>140.1409492521016</v>
       </c>
       <c r="P16" t="n">
-        <v>119.9147921822715</v>
+        <v>119.9147921822716</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.02278643948462</v>
+        <v>83.02278643948468</v>
       </c>
       <c r="R16" t="n">
-        <v>44.58046919223654</v>
+        <v>44.58046919223658</v>
       </c>
       <c r="S16" t="n">
-        <v>17.27876252355791</v>
+        <v>17.27876252355793</v>
       </c>
       <c r="T16" t="n">
-        <v>4.236316320329797</v>
+        <v>4.2363163203298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05408063387655067</v>
+        <v>0.05408063387655072</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.210330764803743</v>
+        <v>2.210330764803744</v>
       </c>
       <c r="H17" t="n">
-        <v>22.63654994504634</v>
+        <v>22.63654994504635</v>
       </c>
       <c r="I17" t="n">
-        <v>85.21377681009638</v>
+        <v>85.21377681009642</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5990607492618</v>
+        <v>187.5990607492619</v>
       </c>
       <c r="K17" t="n">
-        <v>281.1623620234043</v>
+        <v>281.1623620234045</v>
       </c>
       <c r="L17" t="n">
-        <v>348.806772166767</v>
+        <v>348.8067721667671</v>
       </c>
       <c r="M17" t="n">
-        <v>388.1147419053455</v>
+        <v>388.1147419053457</v>
       </c>
       <c r="N17" t="n">
-        <v>394.3948441908442</v>
+        <v>394.3948441908443</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4158676483269</v>
+        <v>372.4158676483271</v>
       </c>
       <c r="P17" t="n">
-        <v>317.8483268922345</v>
+        <v>317.8483268922346</v>
       </c>
       <c r="Q17" t="n">
         <v>238.6908563777004</v>
       </c>
       <c r="R17" t="n">
-        <v>138.8446899046032</v>
+        <v>138.8446899046033</v>
       </c>
       <c r="S17" t="n">
-        <v>50.36791230296534</v>
+        <v>50.36791230296537</v>
       </c>
       <c r="T17" t="n">
-        <v>9.67572292292839</v>
+        <v>9.675722922928394</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1768264611842994</v>
+        <v>0.1768264611842995</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.182631220055136</v>
       </c>
       <c r="H18" t="n">
-        <v>11.42172783579565</v>
+        <v>11.42172783579566</v>
       </c>
       <c r="I18" t="n">
-        <v>40.71778542733691</v>
+        <v>40.71778542733693</v>
       </c>
       <c r="J18" t="n">
         <v>111.7327154000337</v>
       </c>
       <c r="K18" t="n">
-        <v>190.9690071437278</v>
+        <v>190.9690071437279</v>
       </c>
       <c r="L18" t="n">
-        <v>256.781397143989</v>
+        <v>256.7813971439891</v>
       </c>
       <c r="M18" t="n">
-        <v>299.6517788709876</v>
+        <v>299.6517788709878</v>
       </c>
       <c r="N18" t="n">
-        <v>307.5826698160066</v>
+        <v>307.5826698160067</v>
       </c>
       <c r="O18" t="n">
-        <v>281.3780517295216</v>
+        <v>281.3780517295218</v>
       </c>
       <c r="P18" t="n">
-        <v>225.8306932401776</v>
+        <v>225.8306932401777</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.961837844231</v>
+        <v>150.9618378442311</v>
       </c>
       <c r="R18" t="n">
-        <v>73.42687522412503</v>
+        <v>73.42687522412506</v>
       </c>
       <c r="S18" t="n">
-        <v>21.9668562146206</v>
+        <v>21.96685621462061</v>
       </c>
       <c r="T18" t="n">
-        <v>4.766833733467847</v>
+        <v>4.766833733467849</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07780468552994316</v>
+        <v>0.0778046855299432</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9914782877367615</v>
+        <v>0.9914782877367619</v>
       </c>
       <c r="H19" t="n">
-        <v>8.815143321877759</v>
+        <v>8.815143321877763</v>
       </c>
       <c r="I19" t="n">
-        <v>29.81645614393826</v>
+        <v>29.81645614393827</v>
       </c>
       <c r="J19" t="n">
-        <v>70.09751494298904</v>
+        <v>70.09751494298906</v>
       </c>
       <c r="K19" t="n">
-        <v>115.1917501570528</v>
+        <v>115.1917501570529</v>
       </c>
       <c r="L19" t="n">
         <v>147.4057810695182</v>
@@ -32405,28 +32405,28 @@
         <v>155.4187283222271</v>
       </c>
       <c r="N19" t="n">
-        <v>151.7232183406629</v>
+        <v>151.723218340663</v>
       </c>
       <c r="O19" t="n">
         <v>140.1409492521016</v>
       </c>
       <c r="P19" t="n">
-        <v>119.9147921822715</v>
+        <v>119.9147921822716</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.02278643948465</v>
+        <v>83.02278643948468</v>
       </c>
       <c r="R19" t="n">
-        <v>44.58046919223656</v>
+        <v>44.58046919223658</v>
       </c>
       <c r="S19" t="n">
-        <v>17.27876252355792</v>
+        <v>17.27876252355793</v>
       </c>
       <c r="T19" t="n">
-        <v>4.236316320329798</v>
+        <v>4.2363163203298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05408063387655069</v>
+        <v>0.05408063387655072</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.210330764803743</v>
+        <v>2.210330764803744</v>
       </c>
       <c r="H44" t="n">
-        <v>22.63654994504634</v>
+        <v>22.63654994504635</v>
       </c>
       <c r="I44" t="n">
-        <v>85.21377681009639</v>
+        <v>85.21377681009642</v>
       </c>
       <c r="J44" t="n">
         <v>187.5990607492619</v>
       </c>
       <c r="K44" t="n">
-        <v>281.1623620234044</v>
+        <v>281.1623620234045</v>
       </c>
       <c r="L44" t="n">
-        <v>348.806772166767</v>
+        <v>348.8067721667671</v>
       </c>
       <c r="M44" t="n">
-        <v>388.1147419053456</v>
+        <v>388.1147419053457</v>
       </c>
       <c r="N44" t="n">
         <v>394.3948441908443</v>
       </c>
       <c r="O44" t="n">
-        <v>372.415867648327</v>
+        <v>372.4158676483271</v>
       </c>
       <c r="P44" t="n">
-        <v>317.8483268922345</v>
+        <v>317.8483268922346</v>
       </c>
       <c r="Q44" t="n">
         <v>238.6908563777004</v>
@@ -34395,13 +34395,13 @@
         <v>138.8446899046033</v>
       </c>
       <c r="S44" t="n">
-        <v>50.36791230296535</v>
+        <v>50.36791230296537</v>
       </c>
       <c r="T44" t="n">
-        <v>9.675722922928392</v>
+        <v>9.675722922928394</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1768264611842994</v>
+        <v>0.1768264611842995</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,43 +34444,43 @@
         <v>11.42172783579566</v>
       </c>
       <c r="I45" t="n">
-        <v>40.71778542733692</v>
+        <v>40.71778542733693</v>
       </c>
       <c r="J45" t="n">
         <v>111.7327154000337</v>
       </c>
       <c r="K45" t="n">
-        <v>190.9690071437278</v>
+        <v>190.9690071437279</v>
       </c>
       <c r="L45" t="n">
         <v>256.7813971439891</v>
       </c>
       <c r="M45" t="n">
-        <v>299.6517788709876</v>
+        <v>299.6517788709878</v>
       </c>
       <c r="N45" t="n">
-        <v>307.5826698160066</v>
+        <v>307.5826698160067</v>
       </c>
       <c r="O45" t="n">
-        <v>281.3780517295217</v>
+        <v>281.3780517295218</v>
       </c>
       <c r="P45" t="n">
         <v>225.8306932401777</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.961837844231</v>
+        <v>150.9618378442311</v>
       </c>
       <c r="R45" t="n">
-        <v>73.42687522412504</v>
+        <v>73.42687522412506</v>
       </c>
       <c r="S45" t="n">
-        <v>21.9668562146206</v>
+        <v>21.96685621462061</v>
       </c>
       <c r="T45" t="n">
-        <v>4.766833733467848</v>
+        <v>4.766833733467849</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07780468552994318</v>
+        <v>0.0778046855299432</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9914782877367617</v>
+        <v>0.9914782877367619</v>
       </c>
       <c r="H46" t="n">
-        <v>8.815143321877761</v>
+        <v>8.815143321877763</v>
       </c>
       <c r="I46" t="n">
-        <v>29.81645614393826</v>
+        <v>29.81645614393827</v>
       </c>
       <c r="J46" t="n">
-        <v>70.09751494298905</v>
+        <v>70.09751494298906</v>
       </c>
       <c r="K46" t="n">
-        <v>115.1917501570528</v>
+        <v>115.1917501570529</v>
       </c>
       <c r="L46" t="n">
         <v>147.4057810695182</v>
@@ -34538,7 +34538,7 @@
         <v>155.4187283222271</v>
       </c>
       <c r="N46" t="n">
-        <v>151.7232183406629</v>
+        <v>151.723218340663</v>
       </c>
       <c r="O46" t="n">
         <v>140.1409492521016</v>
@@ -34547,19 +34547,19 @@
         <v>119.9147921822716</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.02278643948466</v>
+        <v>83.02278643948468</v>
       </c>
       <c r="R46" t="n">
-        <v>44.58046919223656</v>
+        <v>44.58046919223658</v>
       </c>
       <c r="S46" t="n">
-        <v>17.27876252355792</v>
+        <v>17.27876252355793</v>
       </c>
       <c r="T46" t="n">
-        <v>4.236316320329799</v>
+        <v>4.2363163203298</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0540806338765507</v>
+        <v>0.05408063387655072</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.6497713946492</v>
+        <v>175.6497713946494</v>
       </c>
       <c r="K11" t="n">
-        <v>385.2179235495883</v>
+        <v>385.2179235495886</v>
       </c>
       <c r="L11" t="n">
-        <v>530.7015717472299</v>
+        <v>530.7015717472302</v>
       </c>
       <c r="M11" t="n">
-        <v>607.2820421709049</v>
+        <v>607.2820421709054</v>
       </c>
       <c r="N11" t="n">
-        <v>602.3287050062371</v>
+        <v>602.3287050062374</v>
       </c>
       <c r="O11" t="n">
-        <v>523.1178374893852</v>
+        <v>523.1178374893856</v>
       </c>
       <c r="P11" t="n">
-        <v>408.4140393084473</v>
+        <v>408.4140393084476</v>
       </c>
       <c r="Q11" t="n">
-        <v>228.7001571631554</v>
+        <v>228.7001571631556</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>53.1275681693686</v>
+        <v>53.1275681693688</v>
       </c>
       <c r="L12" t="n">
-        <v>489.0673626675738</v>
+        <v>489.0673626675741</v>
       </c>
       <c r="M12" t="n">
-        <v>469.1482895515175</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N12" t="n">
-        <v>655.5833320762265</v>
+        <v>655.5833320762268</v>
       </c>
       <c r="O12" t="n">
-        <v>532.6441265618065</v>
+        <v>532.6441265618068</v>
       </c>
       <c r="P12" t="n">
-        <v>410.3190544657843</v>
+        <v>256.2445353183308</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.98006375820935</v>
+        <v>10.98006375820952</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>67.75351294681084</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K13" t="n">
-        <v>183.9374364516645</v>
+        <v>183.9374364516646</v>
       </c>
       <c r="L13" t="n">
         <v>266.0109844503289</v>
@@ -35579,16 +35579,16 @@
         <v>286.0177834045622</v>
       </c>
       <c r="N13" t="n">
-        <v>286.870568840386</v>
+        <v>286.8705688403861</v>
       </c>
       <c r="O13" t="n">
-        <v>255.7412552866358</v>
+        <v>255.7412552866359</v>
       </c>
       <c r="P13" t="n">
         <v>208.2085295676596</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.87592130828483</v>
+        <v>87.87592130828487</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.6497713946492</v>
+        <v>175.6497713946494</v>
       </c>
       <c r="K14" t="n">
-        <v>385.2179235495884</v>
+        <v>385.2179235495886</v>
       </c>
       <c r="L14" t="n">
-        <v>530.70157174723</v>
+        <v>530.7015717472302</v>
       </c>
       <c r="M14" t="n">
-        <v>607.2820421709051</v>
+        <v>607.2820421709055</v>
       </c>
       <c r="N14" t="n">
-        <v>602.3287050062372</v>
+        <v>602.3287050062376</v>
       </c>
       <c r="O14" t="n">
-        <v>523.1178374893854</v>
+        <v>523.1178374893857</v>
       </c>
       <c r="P14" t="n">
-        <v>408.4140393084475</v>
+        <v>408.4140393084477</v>
       </c>
       <c r="Q14" t="n">
-        <v>228.7001571631554</v>
+        <v>228.7001571631556</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>110.9861240737759</v>
       </c>
       <c r="K15" t="n">
-        <v>317.5928051819473</v>
+        <v>317.5928051819475</v>
       </c>
       <c r="L15" t="n">
-        <v>118.2270173641147</v>
+        <v>489.0673626675741</v>
       </c>
       <c r="M15" t="n">
-        <v>365.4461101065484</v>
+        <v>362.9620150728653</v>
       </c>
       <c r="N15" t="n">
-        <v>655.5833320762266</v>
+        <v>176.2409577326734</v>
       </c>
       <c r="O15" t="n">
-        <v>532.6441265618066</v>
+        <v>532.6441265618068</v>
       </c>
       <c r="P15" t="n">
-        <v>410.3190544657845</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q15" t="n">
-        <v>221.0573514940585</v>
+        <v>221.0573514940587</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>67.7535129468109</v>
+        <v>67.75351294681133</v>
       </c>
       <c r="K16" t="n">
         <v>183.9374364516646</v>
       </c>
       <c r="L16" t="n">
-        <v>266.0109844503289</v>
+        <v>266.010984450329</v>
       </c>
       <c r="M16" t="n">
-        <v>286.0177834045616</v>
+        <v>286.0177834045624</v>
       </c>
       <c r="N16" t="n">
         <v>286.8705688403861</v>
@@ -35822,10 +35822,10 @@
         <v>255.7412552866359</v>
       </c>
       <c r="P16" t="n">
-        <v>208.2085295676596</v>
+        <v>208.2085295676597</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.8759213082849</v>
+        <v>87.87592130828489</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.6497713946493</v>
+        <v>175.6497713946494</v>
       </c>
       <c r="K17" t="n">
-        <v>385.2179235495885</v>
+        <v>385.2179235495886</v>
       </c>
       <c r="L17" t="n">
         <v>530.7015717472302</v>
       </c>
       <c r="M17" t="n">
-        <v>607.2820421709052</v>
+        <v>607.2820421709055</v>
       </c>
       <c r="N17" t="n">
-        <v>602.3287050062374</v>
+        <v>602.3287050062376</v>
       </c>
       <c r="O17" t="n">
-        <v>523.1178374893856</v>
+        <v>523.1178374893857</v>
       </c>
       <c r="P17" t="n">
-        <v>408.4140393084476</v>
+        <v>408.4140393084477</v>
       </c>
       <c r="Q17" t="n">
         <v>228.7001571631556</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>317.5928051819474</v>
+        <v>53.12756816936886</v>
       </c>
       <c r="L18" t="n">
-        <v>489.067362667574</v>
+        <v>334.9928435201202</v>
       </c>
       <c r="M18" t="n">
-        <v>623.2228086989692</v>
+        <v>623.2228086989694</v>
       </c>
       <c r="N18" t="n">
-        <v>655.5833320762267</v>
+        <v>655.583332076227</v>
       </c>
       <c r="O18" t="n">
-        <v>138.7818072850772</v>
+        <v>532.6441265618068</v>
       </c>
       <c r="P18" t="n">
-        <v>385.6416175824819</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.9800637582095</v>
+        <v>10.98006375820955</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>70.76249425071097</v>
+        <v>70.76249425071104</v>
       </c>
       <c r="K19" t="n">
-        <v>186.9464177555647</v>
+        <v>186.9464177555648</v>
       </c>
       <c r="L19" t="n">
-        <v>269.019965754229</v>
+        <v>269.0199657542291</v>
       </c>
       <c r="M19" t="n">
-        <v>289.0267647084623</v>
+        <v>289.0267647084625</v>
       </c>
       <c r="N19" t="n">
-        <v>216.6864867119621</v>
+        <v>216.6864867119601</v>
       </c>
       <c r="O19" t="n">
-        <v>258.750236590536</v>
+        <v>258.7502365905361</v>
       </c>
       <c r="P19" t="n">
-        <v>211.2175108715597</v>
+        <v>211.2175108715599</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.88490261218497</v>
+        <v>90.88490261218504</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>110.9861240737759</v>
       </c>
       <c r="K21" t="n">
-        <v>168.3181356296197</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L21" t="n">
         <v>489.0673626675741</v>
       </c>
       <c r="M21" t="n">
-        <v>623.2228086989692</v>
+        <v>573.0393028087149</v>
       </c>
       <c r="N21" t="n">
         <v>176.2409577326733</v>
@@ -36220,7 +36220,7 @@
         <v>410.3190544657846</v>
       </c>
       <c r="Q21" t="n">
-        <v>221.0573514940586</v>
+        <v>10.98006375820952</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>70.76249425071099</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>186.9464177555647</v>
       </c>
       <c r="L22" t="n">
-        <v>195.8269023219047</v>
+        <v>269.0199657542291</v>
       </c>
       <c r="M22" t="n">
         <v>289.0267647084624</v>
       </c>
       <c r="N22" t="n">
-        <v>289.8795501442862</v>
+        <v>289.8795501442863</v>
       </c>
       <c r="O22" t="n">
-        <v>258.750236590536</v>
+        <v>256.3196674089214</v>
       </c>
       <c r="P22" t="n">
         <v>211.2175108715598</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.88490261218499</v>
+        <v>90.88490261218502</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>110.9861240737759</v>
       </c>
       <c r="K24" t="n">
-        <v>53.1275681693688</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L24" t="n">
         <v>489.0673626675741</v>
       </c>
       <c r="M24" t="n">
-        <v>623.2228086989692</v>
+        <v>362.9620150728657</v>
       </c>
       <c r="N24" t="n">
-        <v>655.5833320762268</v>
+        <v>176.2409577326733</v>
       </c>
       <c r="O24" t="n">
         <v>532.6441265618068</v>
       </c>
       <c r="P24" t="n">
-        <v>91.85628582584744</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q24" t="n">
-        <v>175.3683132506935</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.76249425071099</v>
+        <v>70.76249425071096</v>
       </c>
       <c r="K25" t="n">
         <v>186.9464177555647</v>
       </c>
       <c r="L25" t="n">
-        <v>269.0199657542291</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M25" t="n">
-        <v>289.0267647084624</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N25" t="n">
         <v>289.8795501442862</v>
@@ -36533,10 +36533,10 @@
         <v>258.750236590536</v>
       </c>
       <c r="P25" t="n">
-        <v>211.2175108715598</v>
+        <v>211.2175108715597</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.69183917986038</v>
+        <v>17.69183917986107</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>110.9861240737759</v>
       </c>
       <c r="K27" t="n">
-        <v>53.1275681693688</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L27" t="n">
         <v>489.0673626675741</v>
       </c>
       <c r="M27" t="n">
-        <v>623.2228086989692</v>
+        <v>362.9620150728657</v>
       </c>
       <c r="N27" t="n">
-        <v>655.5833320762268</v>
+        <v>176.2409577326733</v>
       </c>
       <c r="O27" t="n">
         <v>532.6441265618068</v>
       </c>
       <c r="P27" t="n">
-        <v>91.85628582584744</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q27" t="n">
-        <v>175.3683132506931</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.7535129468109</v>
+        <v>67.75351294681089</v>
       </c>
       <c r="K28" t="n">
         <v>183.9374364516646</v>
@@ -36773,7 +36773,7 @@
         <v>208.2085295676597</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.8759213082849</v>
+        <v>87.87592130828489</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>110.9861240737759</v>
       </c>
       <c r="K30" t="n">
-        <v>53.1275681693688</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L30" t="n">
-        <v>124.9155557842715</v>
+        <v>489.0673626675741</v>
       </c>
       <c r="M30" t="n">
-        <v>623.2228086989692</v>
+        <v>362.9620150728657</v>
       </c>
       <c r="N30" t="n">
-        <v>655.5833320762268</v>
+        <v>176.2409577326733</v>
       </c>
       <c r="O30" t="n">
         <v>532.6441265618068</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>53.1275681693688</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L33" t="n">
         <v>489.0673626675741</v>
@@ -37159,16 +37159,16 @@
         <v>623.2228086989692</v>
       </c>
       <c r="N33" t="n">
-        <v>655.5833320762268</v>
+        <v>176.2409577326733</v>
       </c>
       <c r="O33" t="n">
         <v>532.6441265618068</v>
       </c>
       <c r="P33" t="n">
-        <v>256.2445353183308</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q33" t="n">
-        <v>10.98006375820952</v>
+        <v>71.78268194173079</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>70.76249425071099</v>
       </c>
       <c r="K34" t="n">
-        <v>186.9464177555647</v>
+        <v>113.7533543232403</v>
       </c>
       <c r="L34" t="n">
         <v>269.0199657542291</v>
@@ -37241,7 +37241,7 @@
         <v>289.8795501442862</v>
       </c>
       <c r="O34" t="n">
-        <v>185.5571731582118</v>
+        <v>258.750236590536</v>
       </c>
       <c r="P34" t="n">
         <v>211.2175108715598</v>
@@ -37323,7 +37323,7 @@
         <v>523.1178374893856</v>
       </c>
       <c r="P35" t="n">
-        <v>408.4140393084467</v>
+        <v>408.4140393084476</v>
       </c>
       <c r="Q35" t="n">
         <v>228.7001571631556</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>110.9861240737759</v>
       </c>
       <c r="K36" t="n">
         <v>317.5928051819474</v>
@@ -37393,10 +37393,10 @@
         <v>489.0673626675741</v>
       </c>
       <c r="M36" t="n">
-        <v>623.2228086989692</v>
+        <v>362.9620150728657</v>
       </c>
       <c r="N36" t="n">
-        <v>237.0435759161947</v>
+        <v>176.2409577326733</v>
       </c>
       <c r="O36" t="n">
         <v>532.6441265618068</v>
@@ -37405,7 +37405,7 @@
         <v>410.3190544657846</v>
       </c>
       <c r="Q36" t="n">
-        <v>10.98006375820952</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>70.76249425071099</v>
+        <v>70.76249425071096</v>
       </c>
       <c r="K37" t="n">
         <v>186.9464177555647</v>
       </c>
       <c r="L37" t="n">
-        <v>195.8269023219047</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M37" t="n">
-        <v>289.0267647084624</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N37" t="n">
         <v>289.8795501442862</v>
@@ -37481,10 +37481,10 @@
         <v>258.750236590536</v>
       </c>
       <c r="P37" t="n">
-        <v>211.2175108715598</v>
+        <v>211.2175108715597</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.88490261218499</v>
+        <v>17.69183917986107</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>110.9861240737759</v>
       </c>
       <c r="K39" t="n">
-        <v>168.3181356296197</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L39" t="n">
         <v>489.0673626675741</v>
       </c>
       <c r="M39" t="n">
-        <v>623.2228086989692</v>
+        <v>362.9620150728657</v>
       </c>
       <c r="N39" t="n">
         <v>176.2409577326733</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.6497713946494</v>
+        <v>175.6497713946496</v>
       </c>
       <c r="K41" t="n">
         <v>385.2179235495886</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>110.9861240737759</v>
       </c>
       <c r="K42" t="n">
-        <v>53.1275681693688</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L42" t="n">
         <v>489.0673626675741</v>
       </c>
       <c r="M42" t="n">
-        <v>623.2228086989692</v>
+        <v>362.9620150728657</v>
       </c>
       <c r="N42" t="n">
-        <v>655.5833320762268</v>
+        <v>176.2409577326733</v>
       </c>
       <c r="O42" t="n">
         <v>532.6441265618068</v>
       </c>
       <c r="P42" t="n">
-        <v>91.85628582584744</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q42" t="n">
-        <v>175.3683132506931</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>530.7015717472302</v>
       </c>
       <c r="M44" t="n">
-        <v>607.2820421709054</v>
+        <v>607.2820421709055</v>
       </c>
       <c r="N44" t="n">
-        <v>602.3287050062374</v>
+        <v>602.3287050062376</v>
       </c>
       <c r="O44" t="n">
-        <v>523.1178374893856</v>
+        <v>523.1178374893857</v>
       </c>
       <c r="P44" t="n">
-        <v>408.4140393084476</v>
+        <v>408.4140393084477</v>
       </c>
       <c r="Q44" t="n">
         <v>228.7001571631556</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>110.9861240737759</v>
       </c>
       <c r="K45" t="n">
-        <v>217.5158176618526</v>
+        <v>317.5928051819475</v>
       </c>
       <c r="L45" t="n">
         <v>489.0673626675741</v>
       </c>
       <c r="M45" t="n">
-        <v>623.2228086989692</v>
+        <v>362.9620150728653</v>
       </c>
       <c r="N45" t="n">
-        <v>655.5833320762268</v>
+        <v>176.2409577326734</v>
       </c>
       <c r="O45" t="n">
         <v>532.6441265618068</v>
       </c>
       <c r="P45" t="n">
-        <v>91.85628582584744</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q45" t="n">
-        <v>10.98006375820952</v>
+        <v>221.0573514940587</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>67.75351294681089</v>
+        <v>67.7535129468109</v>
       </c>
       <c r="K46" t="n">
         <v>183.9374364516646</v>
@@ -38183,7 +38183,7 @@
         <v>266.010984450329</v>
       </c>
       <c r="M46" t="n">
-        <v>286.0177834045623</v>
+        <v>286.0177834045624</v>
       </c>
       <c r="N46" t="n">
         <v>286.8705688403861</v>
@@ -38195,7 +38195,7 @@
         <v>208.2085295676597</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.87592130828489</v>
+        <v>87.8759213082849</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
